--- a/DataInput/Tables/DataSource/Master_Alteck16.xlsx
+++ b/DataInput/Tables/DataSource/Master_Alteck16.xlsx
@@ -988,12 +988,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1016,6 +1010,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9316,7 +9316,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9326,7 +9326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
@@ -9334,7 +9334,7 @@
   <cols>
     <col min="1" max="1" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="11"/>
-    <col min="3" max="3" width="45.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="51" style="11" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="11"/>
   </cols>
@@ -9354,1848 +9354,1848 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="8">
         <v>40817</v>
       </c>
-      <c r="C2" s="31">
-        <v>0</v>
-      </c>
-      <c r="D2" s="32">
+      <c r="C2" s="29">
+        <v>0</v>
+      </c>
+      <c r="D2" s="30">
         <v>16</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="8">
         <v>40818</v>
       </c>
-      <c r="C3" s="31">
-        <v>0</v>
-      </c>
-      <c r="D3" s="32">
+      <c r="C3" s="29">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30">
         <v>16.5</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="8">
         <v>40819</v>
       </c>
-      <c r="C4" s="31">
-        <v>0</v>
-      </c>
-      <c r="D4" s="32">
+      <c r="C4" s="29">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
         <v>16.399999999999999</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="8">
         <v>40820</v>
       </c>
-      <c r="C5" s="31">
-        <v>0</v>
-      </c>
-      <c r="D5" s="32">
+      <c r="C5" s="29">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
         <v>17</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="8">
         <v>40821</v>
       </c>
-      <c r="C6" s="31">
-        <v>0</v>
-      </c>
-      <c r="D6" s="32">
+      <c r="C6" s="29">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
         <v>17.2</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="8">
         <v>40822</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>6.2</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="30">
         <v>14.2</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="35"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="8">
         <v>40823</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="29">
         <v>2.1</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="30">
         <v>10.1</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="8">
         <v>40824</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="29">
         <v>1.6</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="30">
         <v>9.3000000000000007</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="35"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="8">
         <v>40825</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="29">
         <v>1.6</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="30">
         <v>10.5</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="8">
         <v>40826</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="29">
         <v>1.6</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="30">
         <v>15.4</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="8">
         <v>40827</v>
       </c>
-      <c r="C12" s="31">
-        <v>0</v>
-      </c>
-      <c r="D12" s="32">
+      <c r="C12" s="29">
+        <v>0</v>
+      </c>
+      <c r="D12" s="30">
         <v>14.6</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="8">
         <v>40828</v>
       </c>
-      <c r="C13" s="31">
-        <v>0</v>
-      </c>
-      <c r="D13" s="32">
+      <c r="C13" s="29">
+        <v>0</v>
+      </c>
+      <c r="D13" s="30">
         <v>14</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="8">
         <v>40829</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="29">
         <v>1</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="30">
         <v>12.6</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="8">
         <v>40830</v>
       </c>
-      <c r="C15" s="31">
-        <v>0</v>
-      </c>
-      <c r="D15" s="32">
+      <c r="C15" s="29">
+        <v>0</v>
+      </c>
+      <c r="D15" s="30">
         <v>9.4</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="8">
         <v>40831</v>
       </c>
-      <c r="C16" s="31">
-        <v>0</v>
-      </c>
-      <c r="D16" s="32">
+      <c r="C16" s="29">
+        <v>0</v>
+      </c>
+      <c r="D16" s="30">
         <v>8.6999999999999993</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="8">
         <v>40832</v>
       </c>
-      <c r="C17" s="31">
-        <v>0</v>
-      </c>
-      <c r="D17" s="32">
+      <c r="C17" s="29">
+        <v>0</v>
+      </c>
+      <c r="D17" s="30">
         <v>8.3000000000000007</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="8">
         <v>40833</v>
       </c>
-      <c r="C18" s="31">
-        <v>0</v>
-      </c>
-      <c r="D18" s="32">
+      <c r="C18" s="29">
+        <v>0</v>
+      </c>
+      <c r="D18" s="30">
         <v>10</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="8">
         <v>40834</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="29">
         <v>0.5</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="30">
         <v>11</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="35"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="8">
         <v>40835</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="29">
         <v>14.5</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="30">
         <v>6.6</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="8">
         <v>40836</v>
       </c>
-      <c r="C21" s="31">
-        <v>0</v>
-      </c>
-      <c r="D21" s="32">
+      <c r="C21" s="29">
+        <v>0</v>
+      </c>
+      <c r="D21" s="30">
         <v>5</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="8">
         <v>40837</v>
       </c>
-      <c r="C22" s="31">
-        <v>0</v>
-      </c>
-      <c r="D22" s="32">
+      <c r="C22" s="29">
+        <v>0</v>
+      </c>
+      <c r="D22" s="30">
         <v>2.9</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="35"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="8">
         <v>40838</v>
       </c>
-      <c r="C23" s="31">
-        <v>0</v>
-      </c>
-      <c r="D23" s="32">
+      <c r="C23" s="29">
+        <v>0</v>
+      </c>
+      <c r="D23" s="30">
         <v>2.6</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="8">
         <v>40839</v>
       </c>
-      <c r="C24" s="31">
-        <v>0</v>
-      </c>
-      <c r="D24" s="32">
+      <c r="C24" s="29">
+        <v>0</v>
+      </c>
+      <c r="D24" s="30">
         <v>3.2</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="8">
         <v>40840</v>
       </c>
-      <c r="C25" s="31">
-        <v>0</v>
-      </c>
-      <c r="D25" s="32">
+      <c r="C25" s="29">
+        <v>0</v>
+      </c>
+      <c r="D25" s="30">
         <v>6.1</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="35"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="8">
         <v>40841</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="29">
         <v>2.6</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="30">
         <v>7.9</v>
       </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="8">
         <v>40842</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="29">
         <v>0.5</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="30">
         <v>8.6</v>
       </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="35"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="8">
         <v>40843</v>
       </c>
-      <c r="C28" s="31">
-        <v>0</v>
-      </c>
-      <c r="D28" s="32">
+      <c r="C28" s="29">
+        <v>0</v>
+      </c>
+      <c r="D28" s="30">
         <v>5.8</v>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="35"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="8">
         <v>40844</v>
       </c>
-      <c r="C29" s="31">
-        <v>0</v>
-      </c>
-      <c r="D29" s="32">
+      <c r="C29" s="29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="30">
         <v>7.3</v>
       </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="35"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="8">
         <v>40845</v>
       </c>
-      <c r="C30" s="31">
-        <v>0</v>
-      </c>
-      <c r="D30" s="32">
+      <c r="C30" s="29">
+        <v>0</v>
+      </c>
+      <c r="D30" s="30">
         <v>9.8000000000000007</v>
       </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="35"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B31" s="8">
         <v>40846</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="29">
         <v>0.5</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="30">
         <v>11.6</v>
       </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="35"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="8">
         <v>40847</v>
       </c>
-      <c r="C32" s="31">
-        <v>0</v>
-      </c>
-      <c r="D32" s="32">
+      <c r="C32" s="29">
+        <v>0</v>
+      </c>
+      <c r="D32" s="30">
         <v>10.3</v>
       </c>
       <c r="E32" s="8"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="35"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="33"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="8">
         <v>40848</v>
       </c>
-      <c r="C33" s="31">
-        <v>0</v>
-      </c>
-      <c r="D33" s="32">
+      <c r="C33" s="29">
+        <v>0</v>
+      </c>
+      <c r="D33" s="30">
         <v>8.5</v>
       </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="35"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="8">
         <v>40849</v>
       </c>
-      <c r="C34" s="31">
-        <v>0</v>
-      </c>
-      <c r="D34" s="32">
+      <c r="C34" s="29">
+        <v>0</v>
+      </c>
+      <c r="D34" s="30">
         <v>9.5</v>
       </c>
       <c r="E34" s="8"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="8">
         <v>40850</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="29">
         <v>0.5</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="30">
         <v>10.1</v>
       </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="8">
         <v>40851</v>
       </c>
-      <c r="C36" s="31">
-        <v>0</v>
-      </c>
-      <c r="D36" s="32">
+      <c r="C36" s="29">
+        <v>0</v>
+      </c>
+      <c r="D36" s="30">
         <v>10.1</v>
       </c>
       <c r="E36" s="8"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="35"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="8">
         <v>40852</v>
       </c>
-      <c r="C37" s="31">
-        <v>0</v>
-      </c>
-      <c r="D37" s="32">
+      <c r="C37" s="29">
+        <v>0</v>
+      </c>
+      <c r="D37" s="30">
         <v>9.9</v>
       </c>
       <c r="E37" s="8"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="8">
         <v>40853</v>
       </c>
-      <c r="C38" s="31">
-        <v>0</v>
-      </c>
-      <c r="D38" s="32">
+      <c r="C38" s="29">
+        <v>0</v>
+      </c>
+      <c r="D38" s="30">
         <v>9.5</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="35"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="8">
         <v>40854</v>
       </c>
-      <c r="C39" s="31">
-        <v>0</v>
-      </c>
-      <c r="D39" s="32">
+      <c r="C39" s="29">
+        <v>0</v>
+      </c>
+      <c r="D39" s="30">
         <v>8.9</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="35"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="8">
         <v>40855</v>
       </c>
-      <c r="C40" s="31">
-        <v>0</v>
-      </c>
-      <c r="D40" s="32">
+      <c r="C40" s="29">
+        <v>0</v>
+      </c>
+      <c r="D40" s="30">
         <v>8.6</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="35"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="8">
         <v>40856</v>
       </c>
-      <c r="C41" s="31">
-        <v>0</v>
-      </c>
-      <c r="D41" s="32">
+      <c r="C41" s="29">
+        <v>0</v>
+      </c>
+      <c r="D41" s="30">
         <v>7.4</v>
       </c>
       <c r="E41" s="8"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="8">
         <v>40857</v>
       </c>
-      <c r="C42" s="31">
-        <v>0</v>
-      </c>
-      <c r="D42" s="32">
+      <c r="C42" s="29">
+        <v>0</v>
+      </c>
+      <c r="D42" s="30">
         <v>6.3</v>
       </c>
       <c r="E42" s="8"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="8">
         <v>40858</v>
       </c>
-      <c r="C43" s="31">
-        <v>0</v>
-      </c>
-      <c r="D43" s="32">
+      <c r="C43" s="29">
+        <v>0</v>
+      </c>
+      <c r="D43" s="30">
         <v>6.8</v>
       </c>
       <c r="E43" s="8"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="35"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="33"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="8">
         <v>40859</v>
       </c>
-      <c r="C44" s="31">
-        <v>0</v>
-      </c>
-      <c r="D44" s="32">
+      <c r="C44" s="29">
+        <v>0</v>
+      </c>
+      <c r="D44" s="30">
         <v>6.2</v>
       </c>
       <c r="E44" s="8"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="8">
         <v>40860</v>
       </c>
-      <c r="C45" s="31">
-        <v>0</v>
-      </c>
-      <c r="D45" s="32">
+      <c r="C45" s="29">
+        <v>0</v>
+      </c>
+      <c r="D45" s="30">
         <v>4.9000000000000004</v>
       </c>
       <c r="E45" s="8"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="8">
         <v>40861</v>
       </c>
-      <c r="C46" s="31">
-        <v>0</v>
-      </c>
-      <c r="D46" s="32">
+      <c r="C46" s="29">
+        <v>0</v>
+      </c>
+      <c r="D46" s="30">
         <v>4</v>
       </c>
       <c r="E46" s="8"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="35"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="33"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="8">
         <v>40862</v>
       </c>
-      <c r="C47" s="31">
-        <v>0</v>
-      </c>
-      <c r="D47" s="32">
+      <c r="C47" s="29">
+        <v>0</v>
+      </c>
+      <c r="D47" s="30">
         <v>2.9</v>
       </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="35"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="33"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="8">
         <v>40863</v>
       </c>
-      <c r="C48" s="31">
-        <v>0</v>
-      </c>
-      <c r="D48" s="32">
+      <c r="C48" s="29">
+        <v>0</v>
+      </c>
+      <c r="D48" s="30">
         <v>2.2999999999999998</v>
       </c>
       <c r="E48" s="8"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="35"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="33"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="8">
         <v>40864</v>
       </c>
-      <c r="C49" s="31">
-        <v>0</v>
-      </c>
-      <c r="D49" s="32">
+      <c r="C49" s="29">
+        <v>0</v>
+      </c>
+      <c r="D49" s="30">
         <v>3.6</v>
       </c>
       <c r="E49" s="8"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="35"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="33"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="8">
         <v>40865</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="29">
         <v>0.5</v>
       </c>
-      <c r="D50" s="32">
+      <c r="D50" s="30">
         <v>3.8</v>
       </c>
       <c r="E50" s="8"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="35"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="33"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B51" s="8">
         <v>40866</v>
       </c>
-      <c r="C51" s="31">
-        <v>0</v>
-      </c>
-      <c r="D51" s="32">
+      <c r="C51" s="29">
+        <v>0</v>
+      </c>
+      <c r="D51" s="30">
         <v>5.2</v>
       </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="35"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="33"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B52" s="8">
         <v>40867</v>
       </c>
-      <c r="C52" s="31">
-        <v>0</v>
-      </c>
-      <c r="D52" s="32">
+      <c r="C52" s="29">
+        <v>0</v>
+      </c>
+      <c r="D52" s="30">
         <v>4.3</v>
       </c>
       <c r="E52" s="8"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="35"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="33"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B53" s="8">
         <v>40868</v>
       </c>
-      <c r="C53" s="31">
-        <v>0</v>
-      </c>
-      <c r="D53" s="32">
+      <c r="C53" s="29">
+        <v>0</v>
+      </c>
+      <c r="D53" s="30">
         <v>2.1</v>
       </c>
       <c r="E53" s="8"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="33"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="8">
         <v>40869</v>
       </c>
-      <c r="C54" s="31">
-        <v>0</v>
-      </c>
-      <c r="D54" s="32">
+      <c r="C54" s="29">
+        <v>0</v>
+      </c>
+      <c r="D54" s="30">
         <v>1.6</v>
       </c>
       <c r="E54" s="8"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="35"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="33"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B55" s="8">
         <v>40870</v>
       </c>
-      <c r="C55" s="31">
+      <c r="C55" s="29">
         <v>0.5</v>
       </c>
-      <c r="D55" s="32">
+      <c r="D55" s="30">
         <v>2.2000000000000002</v>
       </c>
       <c r="E55" s="8"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="35"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="33"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B56" s="8">
         <v>40871</v>
       </c>
-      <c r="C56" s="31">
-        <v>0</v>
-      </c>
-      <c r="D56" s="32">
+      <c r="C56" s="29">
+        <v>0</v>
+      </c>
+      <c r="D56" s="30">
         <v>2.1</v>
       </c>
       <c r="E56" s="8"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="35"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="33"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B57" s="8">
         <v>40872</v>
       </c>
-      <c r="C57" s="31">
-        <v>0</v>
-      </c>
-      <c r="D57" s="32">
+      <c r="C57" s="29">
+        <v>0</v>
+      </c>
+      <c r="D57" s="30">
         <v>2.4</v>
       </c>
       <c r="E57" s="8"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="35"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="33"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B58" s="8">
         <v>40873</v>
       </c>
-      <c r="C58" s="31">
-        <v>0</v>
-      </c>
-      <c r="D58" s="32">
+      <c r="C58" s="29">
+        <v>0</v>
+      </c>
+      <c r="D58" s="30">
         <v>5.5</v>
       </c>
       <c r="E58" s="8"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="35"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="33"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B59" s="8">
         <v>40874</v>
       </c>
-      <c r="C59" s="31">
-        <v>0</v>
-      </c>
-      <c r="D59" s="32">
+      <c r="C59" s="29">
+        <v>0</v>
+      </c>
+      <c r="D59" s="30">
         <v>5.5</v>
       </c>
       <c r="E59" s="8"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="35"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="33"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B60" s="8">
         <v>40875</v>
       </c>
-      <c r="C60" s="31">
-        <v>0</v>
-      </c>
-      <c r="D60" s="32">
+      <c r="C60" s="29">
+        <v>0</v>
+      </c>
+      <c r="D60" s="30">
         <v>5.9</v>
       </c>
       <c r="E60" s="8"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="35"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="33"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B61" s="8">
         <v>40876</v>
       </c>
-      <c r="C61" s="31">
-        <v>0</v>
-      </c>
-      <c r="D61" s="32">
+      <c r="C61" s="29">
+        <v>0</v>
+      </c>
+      <c r="D61" s="30">
         <v>3.4</v>
       </c>
       <c r="E61" s="8"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="35"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="33"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B62" s="8">
         <v>40877</v>
       </c>
-      <c r="C62" s="31">
+      <c r="C62" s="29">
         <v>0.5</v>
       </c>
-      <c r="D62" s="32">
+      <c r="D62" s="30">
         <v>6</v>
       </c>
       <c r="E62" s="8"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="33"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B63" s="8">
         <v>40878</v>
       </c>
-      <c r="C63" s="31">
-        <v>0</v>
-      </c>
-      <c r="D63" s="32">
+      <c r="C63" s="29">
+        <v>0</v>
+      </c>
+      <c r="D63" s="30">
         <v>7.6</v>
       </c>
       <c r="E63" s="8"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="35"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="33"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B64" s="8">
         <v>40879</v>
       </c>
-      <c r="C64" s="31">
+      <c r="C64" s="29">
         <v>1</v>
       </c>
-      <c r="D64" s="32">
+      <c r="D64" s="30">
         <v>8.9</v>
       </c>
       <c r="E64" s="8"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="35"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="33"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B65" s="8">
         <v>40880</v>
       </c>
-      <c r="C65" s="31">
+      <c r="C65" s="29">
         <v>0.5</v>
       </c>
-      <c r="D65" s="32">
+      <c r="D65" s="30">
         <v>7.6</v>
       </c>
       <c r="E65" s="8"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="35"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="33"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B66" s="8">
         <v>40881</v>
       </c>
-      <c r="C66" s="31">
+      <c r="C66" s="29">
         <v>1.6</v>
       </c>
-      <c r="D66" s="32">
+      <c r="D66" s="30">
         <v>11.5</v>
       </c>
       <c r="E66" s="8"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="35"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="33"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B67" s="8">
         <v>40882</v>
       </c>
-      <c r="C67" s="31">
+      <c r="C67" s="29">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D67" s="32">
+      <c r="D67" s="30">
         <v>5.7</v>
       </c>
       <c r="E67" s="8"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="35"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="33"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B68" s="8">
         <v>40883</v>
       </c>
-      <c r="C68" s="31">
+      <c r="C68" s="29">
         <v>5.2</v>
       </c>
-      <c r="D68" s="32">
+      <c r="D68" s="30">
         <v>4.3</v>
       </c>
       <c r="E68" s="8"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="35"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="33"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B69" s="8">
         <v>40884</v>
       </c>
-      <c r="C69" s="31">
+      <c r="C69" s="29">
         <v>7.3</v>
       </c>
-      <c r="D69" s="32">
+      <c r="D69" s="30">
         <v>7.1</v>
       </c>
       <c r="E69" s="8"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="35"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="33"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B70" s="8">
         <v>40885</v>
       </c>
-      <c r="C70" s="31">
+      <c r="C70" s="29">
         <v>1</v>
       </c>
-      <c r="D70" s="32">
+      <c r="D70" s="30">
         <v>7.5</v>
       </c>
       <c r="E70" s="8"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="35"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="33"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B71" s="8">
         <v>40886</v>
       </c>
-      <c r="C71" s="31">
+      <c r="C71" s="29">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D71" s="32">
+      <c r="D71" s="30">
         <v>6.3</v>
       </c>
       <c r="E71" s="8"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="33"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B72" s="8">
         <v>40887</v>
       </c>
-      <c r="C72" s="31">
+      <c r="C72" s="29">
         <v>2.1</v>
       </c>
-      <c r="D72" s="32">
+      <c r="D72" s="30">
         <v>3.2</v>
       </c>
       <c r="E72" s="8"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="35"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="33"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B73" s="8">
         <v>40888</v>
       </c>
-      <c r="C73" s="31">
-        <v>0</v>
-      </c>
-      <c r="D73" s="32">
+      <c r="C73" s="29">
+        <v>0</v>
+      </c>
+      <c r="D73" s="30">
         <v>1.6</v>
       </c>
       <c r="E73" s="8"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="35"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="33"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B74" s="8">
         <v>40889</v>
       </c>
-      <c r="C74" s="31">
+      <c r="C74" s="29">
         <v>2.6</v>
       </c>
-      <c r="D74" s="32">
+      <c r="D74" s="30">
         <v>5.2</v>
       </c>
       <c r="E74" s="8"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="35"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="33"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B75" s="8">
         <v>40890</v>
       </c>
-      <c r="C75" s="31">
+      <c r="C75" s="29">
         <v>4.7</v>
       </c>
-      <c r="D75" s="32">
+      <c r="D75" s="30">
         <v>7.3</v>
       </c>
       <c r="E75" s="8"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="35"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="33"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B76" s="8">
         <v>40891</v>
       </c>
-      <c r="C76" s="31">
+      <c r="C76" s="29">
         <v>2.6</v>
       </c>
-      <c r="D76" s="32">
+      <c r="D76" s="30">
         <v>7.3</v>
       </c>
       <c r="E76" s="8"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="35"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="33"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B77" s="8">
         <v>40892</v>
       </c>
-      <c r="C77" s="31">
+      <c r="C77" s="29">
         <v>1</v>
       </c>
-      <c r="D77" s="32">
+      <c r="D77" s="30">
         <v>5.9</v>
       </c>
       <c r="E77" s="8"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="35"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="33"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B78" s="8">
         <v>40893</v>
       </c>
-      <c r="C78" s="31">
+      <c r="C78" s="29">
         <v>29</v>
       </c>
-      <c r="D78" s="32">
+      <c r="D78" s="30">
         <v>6.1</v>
       </c>
       <c r="E78" s="8"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="35"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="33"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B79" s="8">
         <v>40894</v>
       </c>
-      <c r="C79" s="31">
+      <c r="C79" s="29">
         <v>0.5</v>
       </c>
-      <c r="D79" s="32">
+      <c r="D79" s="30">
         <v>2.8</v>
       </c>
       <c r="E79" s="8"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="35"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="33"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B80" s="8">
         <v>40895</v>
       </c>
-      <c r="C80" s="31">
-        <v>0</v>
-      </c>
-      <c r="D80" s="32">
+      <c r="C80" s="29">
+        <v>0</v>
+      </c>
+      <c r="D80" s="30">
         <v>1.5</v>
       </c>
       <c r="E80" s="8"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="33"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B81" s="8">
         <v>40896</v>
       </c>
-      <c r="C81" s="31">
+      <c r="C81" s="29">
         <v>1</v>
       </c>
-      <c r="D81" s="32">
+      <c r="D81" s="30">
         <v>0.9</v>
       </c>
       <c r="E81" s="8"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="35"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="33"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B82" s="8">
         <v>40897</v>
       </c>
-      <c r="C82" s="31">
+      <c r="C82" s="29">
         <v>3.1</v>
       </c>
-      <c r="D82" s="32">
+      <c r="D82" s="30">
         <v>2.2000000000000002</v>
       </c>
       <c r="E82" s="8"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="35"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="33"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B83" s="8">
         <v>40898</v>
       </c>
-      <c r="C83" s="31">
+      <c r="C83" s="29">
         <v>2.6</v>
       </c>
-      <c r="D83" s="32">
+      <c r="D83" s="30">
         <v>3.1</v>
       </c>
       <c r="E83" s="8"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="35"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="33"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B84" s="8">
         <v>40899</v>
       </c>
-      <c r="C84" s="31">
+      <c r="C84" s="29">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D84" s="32">
+      <c r="D84" s="30">
         <v>7.4</v>
       </c>
       <c r="E84" s="8"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="35"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="33"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B85" s="8">
         <v>40900</v>
       </c>
-      <c r="C85" s="31">
-        <v>0</v>
-      </c>
-      <c r="D85" s="32">
+      <c r="C85" s="29">
+        <v>0</v>
+      </c>
+      <c r="D85" s="30">
         <v>7.5</v>
       </c>
       <c r="E85" s="8"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="35"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="33"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="30" t="s">
+      <c r="A86" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B86" s="8">
         <v>40901</v>
       </c>
-      <c r="C86" s="31">
+      <c r="C86" s="29">
         <v>1.6</v>
       </c>
-      <c r="D86" s="32">
+      <c r="D86" s="30">
         <v>4.2</v>
       </c>
       <c r="E86" s="8"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="35"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="33"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="30" t="s">
+      <c r="A87" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B87" s="8">
         <v>40902</v>
       </c>
-      <c r="C87" s="31">
-        <v>0</v>
-      </c>
-      <c r="D87" s="32">
+      <c r="C87" s="29">
+        <v>0</v>
+      </c>
+      <c r="D87" s="30">
         <v>3.9</v>
       </c>
       <c r="E87" s="8"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="35"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="33"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B88" s="8">
         <v>40903</v>
       </c>
-      <c r="C88" s="31">
-        <v>0</v>
-      </c>
-      <c r="D88" s="32">
+      <c r="C88" s="29">
+        <v>0</v>
+      </c>
+      <c r="D88" s="30">
         <v>6.1</v>
       </c>
       <c r="E88" s="8"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="35"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="33"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B89" s="8">
         <v>40904</v>
       </c>
-      <c r="C89" s="31">
-        <v>0</v>
-      </c>
-      <c r="D89" s="32">
+      <c r="C89" s="29">
+        <v>0</v>
+      </c>
+      <c r="D89" s="30">
         <v>6</v>
       </c>
       <c r="E89" s="8"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="33"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B90" s="8">
         <v>40905</v>
       </c>
-      <c r="C90" s="31">
+      <c r="C90" s="29">
         <v>0.5</v>
       </c>
-      <c r="D90" s="32">
+      <c r="D90" s="30">
         <v>4.3</v>
       </c>
       <c r="E90" s="8"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="35"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="33"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B91" s="8">
         <v>40906</v>
       </c>
-      <c r="C91" s="31">
-        <v>0</v>
-      </c>
-      <c r="D91" s="32">
+      <c r="C91" s="29">
+        <v>0</v>
+      </c>
+      <c r="D91" s="30">
         <v>5.2</v>
       </c>
       <c r="E91" s="8"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="35"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="33"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B92" s="8">
         <v>40907</v>
       </c>
-      <c r="C92" s="31">
+      <c r="C92" s="29">
         <v>5.7</v>
       </c>
-      <c r="D92" s="32">
+      <c r="D92" s="30">
         <v>3.7</v>
       </c>
       <c r="E92" s="8"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="35"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="33"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B93" s="8">
         <v>40908</v>
       </c>
-      <c r="C93" s="31">
+      <c r="C93" s="29">
         <v>3.6</v>
       </c>
-      <c r="D93" s="32">
+      <c r="D93" s="30">
         <v>2.8</v>
       </c>
       <c r="E93" s="8"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="33"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
@@ -11204,18 +11204,18 @@
       <c r="B94" s="8">
         <v>40909</v>
       </c>
-      <c r="C94" s="33">
-        <v>0</v>
-      </c>
-      <c r="D94" s="33">
+      <c r="C94" s="31">
+        <v>0</v>
+      </c>
+      <c r="D94" s="31">
         <v>11.6</v>
       </c>
       <c r="E94" s="8"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="35"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="33"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
@@ -11224,18 +11224,18 @@
       <c r="B95" s="8">
         <v>40910</v>
       </c>
-      <c r="C95" s="33">
+      <c r="C95" s="31">
         <v>1.4</v>
       </c>
-      <c r="D95" s="33">
+      <c r="D95" s="31">
         <v>9.4</v>
       </c>
       <c r="E95" s="8"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="35"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="33"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
@@ -11244,18 +11244,18 @@
       <c r="B96" s="8">
         <v>40911</v>
       </c>
-      <c r="C96" s="33">
+      <c r="C96" s="31">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D96" s="33">
+      <c r="D96" s="31">
         <v>7.7</v>
       </c>
       <c r="E96" s="8"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="35"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="33"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
@@ -11264,18 +11264,18 @@
       <c r="B97" s="8">
         <v>40912</v>
       </c>
-      <c r="C97" s="33">
+      <c r="C97" s="31">
         <v>1.4</v>
       </c>
-      <c r="D97" s="33">
+      <c r="D97" s="31">
         <v>6.7</v>
       </c>
       <c r="E97" s="8"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="35"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="33"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
@@ -11284,18 +11284,18 @@
       <c r="B98" s="8">
         <v>40913</v>
       </c>
-      <c r="C98" s="33">
+      <c r="C98" s="31">
         <v>9.6</v>
       </c>
-      <c r="D98" s="33">
+      <c r="D98" s="31">
         <v>6.7</v>
       </c>
       <c r="E98" s="8"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="33"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
@@ -11304,18 +11304,18 @@
       <c r="B99" s="8">
         <v>40914</v>
       </c>
-      <c r="C99" s="33">
-        <v>0</v>
-      </c>
-      <c r="D99" s="33">
+      <c r="C99" s="31">
+        <v>0</v>
+      </c>
+      <c r="D99" s="31">
         <v>5.0999999999999996</v>
       </c>
       <c r="E99" s="8"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="35"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="33"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
@@ -11324,18 +11324,18 @@
       <c r="B100" s="8">
         <v>40915</v>
       </c>
-      <c r="C100" s="33">
+      <c r="C100" s="31">
         <v>0.4</v>
       </c>
-      <c r="D100" s="33">
+      <c r="D100" s="31">
         <v>5.0999999999999996</v>
       </c>
       <c r="E100" s="8"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="35"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="33"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
@@ -11344,18 +11344,18 @@
       <c r="B101" s="8">
         <v>40916</v>
       </c>
-      <c r="C101" s="33">
+      <c r="C101" s="31">
         <v>1</v>
       </c>
-      <c r="D101" s="33">
+      <c r="D101" s="31">
         <v>5.9</v>
       </c>
       <c r="E101" s="8"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="34"/>
-      <c r="J101" s="35"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="33"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
@@ -11364,18 +11364,18 @@
       <c r="B102" s="8">
         <v>40917</v>
       </c>
-      <c r="C102" s="33">
+      <c r="C102" s="31">
         <v>1.8</v>
       </c>
-      <c r="D102" s="33">
+      <c r="D102" s="31">
         <v>5.3</v>
       </c>
       <c r="E102" s="8"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="35"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="33"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
@@ -11384,18 +11384,18 @@
       <c r="B103" s="8">
         <v>40918</v>
       </c>
-      <c r="C103" s="33">
-        <v>0</v>
-      </c>
-      <c r="D103" s="33">
+      <c r="C103" s="31">
+        <v>0</v>
+      </c>
+      <c r="D103" s="31">
         <v>6.1</v>
       </c>
       <c r="E103" s="8"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="34"/>
-      <c r="J103" s="35"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="33"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
@@ -11404,18 +11404,18 @@
       <c r="B104" s="8">
         <v>40919</v>
       </c>
-      <c r="C104" s="33">
-        <v>0</v>
-      </c>
-      <c r="D104" s="33">
+      <c r="C104" s="31">
+        <v>0</v>
+      </c>
+      <c r="D104" s="31">
         <v>2.9</v>
       </c>
       <c r="E104" s="8"/>
-      <c r="F104" s="34"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="34"/>
-      <c r="J104" s="35"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="33"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
@@ -11424,18 +11424,18 @@
       <c r="B105" s="8">
         <v>40920</v>
       </c>
-      <c r="C105" s="33">
+      <c r="C105" s="31">
         <v>1</v>
       </c>
-      <c r="D105" s="33">
+      <c r="D105" s="31">
         <v>1.5</v>
       </c>
       <c r="E105" s="8"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="34"/>
-      <c r="J105" s="35"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="33"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
@@ -11444,18 +11444,18 @@
       <c r="B106" s="8">
         <v>40921</v>
       </c>
-      <c r="C106" s="33">
+      <c r="C106" s="31">
         <v>1</v>
       </c>
-      <c r="D106" s="33">
+      <c r="D106" s="31">
         <v>3</v>
       </c>
       <c r="E106" s="8"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="35"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="33"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
@@ -11464,18 +11464,18 @@
       <c r="B107" s="8">
         <v>40922</v>
       </c>
-      <c r="C107" s="33">
-        <v>0</v>
-      </c>
-      <c r="D107" s="33">
+      <c r="C107" s="31">
+        <v>0</v>
+      </c>
+      <c r="D107" s="31">
         <v>-0.4</v>
       </c>
       <c r="E107" s="8"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="34"/>
-      <c r="I107" s="34"/>
-      <c r="J107" s="35"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="33"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
@@ -11484,18 +11484,18 @@
       <c r="B108" s="8">
         <v>40923</v>
       </c>
-      <c r="C108" s="33">
-        <v>0</v>
-      </c>
-      <c r="D108" s="33">
+      <c r="C108" s="31">
+        <v>0</v>
+      </c>
+      <c r="D108" s="31">
         <v>-0.7</v>
       </c>
       <c r="E108" s="8"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="34"/>
-      <c r="J108" s="35"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="33"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
@@ -11504,18 +11504,18 @@
       <c r="B109" s="8">
         <v>40924</v>
       </c>
-      <c r="C109" s="33">
-        <v>0</v>
-      </c>
-      <c r="D109" s="33">
+      <c r="C109" s="31">
+        <v>0</v>
+      </c>
+      <c r="D109" s="31">
         <v>-1.1000000000000001</v>
       </c>
       <c r="E109" s="8"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="34"/>
-      <c r="J109" s="35"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="33"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
@@ -11524,18 +11524,18 @@
       <c r="B110" s="8">
         <v>40925</v>
       </c>
-      <c r="C110" s="33">
-        <v>0</v>
-      </c>
-      <c r="D110" s="33">
+      <c r="C110" s="31">
+        <v>0</v>
+      </c>
+      <c r="D110" s="31">
         <v>-2.2000000000000002</v>
       </c>
       <c r="E110" s="8"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="34"/>
-      <c r="I110" s="34"/>
-      <c r="J110" s="35"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="33"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
@@ -11544,18 +11544,18 @@
       <c r="B111" s="8">
         <v>40926</v>
       </c>
-      <c r="C111" s="33">
+      <c r="C111" s="31">
         <v>0.2</v>
       </c>
-      <c r="D111" s="33">
+      <c r="D111" s="31">
         <v>-1</v>
       </c>
       <c r="E111" s="8"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="34"/>
-      <c r="I111" s="34"/>
-      <c r="J111" s="35"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="33"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
@@ -11564,18 +11564,18 @@
       <c r="B112" s="8">
         <v>40927</v>
       </c>
-      <c r="C112" s="33">
+      <c r="C112" s="31">
         <v>6.6</v>
       </c>
-      <c r="D112" s="33">
+      <c r="D112" s="31">
         <v>6.9</v>
       </c>
       <c r="E112" s="8"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="34"/>
-      <c r="J112" s="35"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="33"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
@@ -11584,18 +11584,18 @@
       <c r="B113" s="8">
         <v>40928</v>
       </c>
-      <c r="C113" s="33">
+      <c r="C113" s="31">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D113" s="33">
+      <c r="D113" s="31">
         <v>6.2</v>
       </c>
       <c r="E113" s="8"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="34"/>
-      <c r="I113" s="34"/>
-      <c r="J113" s="35"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="33"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
@@ -11604,18 +11604,18 @@
       <c r="B114" s="8">
         <v>40929</v>
       </c>
-      <c r="C114" s="33">
+      <c r="C114" s="31">
         <v>3.2</v>
       </c>
-      <c r="D114" s="33">
+      <c r="D114" s="31">
         <v>7.6</v>
       </c>
       <c r="E114" s="8"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="34"/>
-      <c r="J114" s="35"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="33"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
@@ -11624,18 +11624,18 @@
       <c r="B115" s="8">
         <v>40930</v>
       </c>
-      <c r="C115" s="33">
+      <c r="C115" s="31">
         <v>2</v>
       </c>
-      <c r="D115" s="33">
+      <c r="D115" s="31">
         <v>7.6</v>
       </c>
       <c r="E115" s="8"/>
-      <c r="F115" s="34"/>
-      <c r="G115" s="34"/>
-      <c r="H115" s="34"/>
-      <c r="I115" s="34"/>
-      <c r="J115" s="35"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="33"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
@@ -11644,18 +11644,18 @@
       <c r="B116" s="8">
         <v>40931</v>
       </c>
-      <c r="C116" s="33">
+      <c r="C116" s="31">
         <v>2.4</v>
       </c>
-      <c r="D116" s="33">
+      <c r="D116" s="31">
         <v>6</v>
       </c>
       <c r="E116" s="8"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="34"/>
-      <c r="H116" s="34"/>
-      <c r="I116" s="34"/>
-      <c r="J116" s="35"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="33"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
@@ -11664,18 +11664,18 @@
       <c r="B117" s="8">
         <v>40932</v>
       </c>
-      <c r="C117" s="33">
+      <c r="C117" s="31">
         <v>0.2</v>
       </c>
-      <c r="D117" s="33">
+      <c r="D117" s="31">
         <v>4.2</v>
       </c>
       <c r="E117" s="8"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="34"/>
-      <c r="J117" s="35"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="32"/>
+      <c r="J117" s="33"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="26" t="s">
@@ -11684,18 +11684,18 @@
       <c r="B118" s="8">
         <v>40933</v>
       </c>
-      <c r="C118" s="33">
-        <v>0</v>
-      </c>
-      <c r="D118" s="33">
+      <c r="C118" s="31">
+        <v>0</v>
+      </c>
+      <c r="D118" s="31">
         <v>4.2</v>
       </c>
       <c r="E118" s="8"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
-      <c r="J118" s="35"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="33"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
@@ -11704,18 +11704,18 @@
       <c r="B119" s="8">
         <v>40934</v>
       </c>
-      <c r="C119" s="33">
+      <c r="C119" s="31">
         <v>2.4</v>
       </c>
-      <c r="D119" s="33">
+      <c r="D119" s="31">
         <v>1.9</v>
       </c>
       <c r="E119" s="8"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34"/>
-      <c r="J119" s="35"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="32"/>
+      <c r="J119" s="33"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
@@ -11724,18 +11724,18 @@
       <c r="B120" s="8">
         <v>40935</v>
       </c>
-      <c r="C120" s="33">
-        <v>0</v>
-      </c>
-      <c r="D120" s="33">
+      <c r="C120" s="31">
+        <v>0</v>
+      </c>
+      <c r="D120" s="31">
         <v>4</v>
       </c>
       <c r="E120" s="8"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="34"/>
-      <c r="H120" s="34"/>
-      <c r="I120" s="34"/>
-      <c r="J120" s="35"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="32"/>
+      <c r="J120" s="33"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
@@ -11744,18 +11744,18 @@
       <c r="B121" s="8">
         <v>40936</v>
       </c>
-      <c r="C121" s="33">
-        <v>0</v>
-      </c>
-      <c r="D121" s="33">
+      <c r="C121" s="31">
+        <v>0</v>
+      </c>
+      <c r="D121" s="31">
         <v>3.1</v>
       </c>
       <c r="E121" s="8"/>
-      <c r="F121" s="34"/>
-      <c r="G121" s="34"/>
-      <c r="H121" s="34"/>
-      <c r="I121" s="34"/>
-      <c r="J121" s="35"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="32"/>
+      <c r="J121" s="33"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
@@ -11764,18 +11764,18 @@
       <c r="B122" s="8">
         <v>40937</v>
       </c>
-      <c r="C122" s="33">
+      <c r="C122" s="31">
         <v>1</v>
       </c>
-      <c r="D122" s="33">
+      <c r="D122" s="31">
         <v>0.4</v>
       </c>
       <c r="E122" s="8"/>
-      <c r="F122" s="34"/>
-      <c r="G122" s="34"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="34"/>
-      <c r="J122" s="35"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="32"/>
+      <c r="J122" s="33"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
@@ -11784,18 +11784,18 @@
       <c r="B123" s="8">
         <v>40938</v>
       </c>
-      <c r="C123" s="33">
+      <c r="C123" s="31">
         <v>2.8</v>
       </c>
-      <c r="D123" s="33">
+      <c r="D123" s="31">
         <v>-0.3</v>
       </c>
       <c r="E123" s="8"/>
-      <c r="F123" s="34"/>
-      <c r="G123" s="34"/>
-      <c r="H123" s="34"/>
-      <c r="I123" s="34"/>
-      <c r="J123" s="35"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="32"/>
+      <c r="J123" s="33"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
@@ -11804,18 +11804,18 @@
       <c r="B124" s="8">
         <v>40939</v>
       </c>
-      <c r="C124" s="33">
-        <v>0</v>
-      </c>
-      <c r="D124" s="33">
+      <c r="C124" s="31">
+        <v>0</v>
+      </c>
+      <c r="D124" s="31">
         <v>-1.6</v>
       </c>
       <c r="E124" s="8"/>
-      <c r="F124" s="34"/>
-      <c r="G124" s="34"/>
-      <c r="H124" s="34"/>
-      <c r="I124" s="34"/>
-      <c r="J124" s="35"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="32"/>
+      <c r="H124" s="32"/>
+      <c r="I124" s="32"/>
+      <c r="J124" s="33"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
@@ -11824,18 +11824,18 @@
       <c r="B125" s="8">
         <v>40940</v>
       </c>
-      <c r="C125" s="33">
-        <v>0</v>
-      </c>
-      <c r="D125" s="33">
+      <c r="C125" s="31">
+        <v>0</v>
+      </c>
+      <c r="D125" s="31">
         <v>-4.8</v>
       </c>
       <c r="E125" s="8"/>
-      <c r="F125" s="34"/>
-      <c r="G125" s="34"/>
-      <c r="H125" s="34"/>
-      <c r="I125" s="34"/>
-      <c r="J125" s="35"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="32"/>
+      <c r="J125" s="33"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="26" t="s">
@@ -11844,18 +11844,18 @@
       <c r="B126" s="8">
         <v>40941</v>
       </c>
-      <c r="C126" s="33">
-        <v>0</v>
-      </c>
-      <c r="D126" s="33">
+      <c r="C126" s="31">
+        <v>0</v>
+      </c>
+      <c r="D126" s="31">
         <v>-7.2</v>
       </c>
       <c r="E126" s="8"/>
-      <c r="F126" s="34"/>
-      <c r="G126" s="34"/>
-      <c r="H126" s="34"/>
-      <c r="I126" s="34"/>
-      <c r="J126" s="35"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="33"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="26" t="s">
@@ -11864,18 +11864,18 @@
       <c r="B127" s="8">
         <v>40942</v>
       </c>
-      <c r="C127" s="33">
-        <v>0</v>
-      </c>
-      <c r="D127" s="33">
+      <c r="C127" s="31">
+        <v>0</v>
+      </c>
+      <c r="D127" s="31">
         <v>-9.1</v>
       </c>
       <c r="E127" s="8"/>
-      <c r="F127" s="34"/>
-      <c r="G127" s="34"/>
-      <c r="H127" s="34"/>
-      <c r="I127" s="34"/>
-      <c r="J127" s="35"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="32"/>
+      <c r="I127" s="32"/>
+      <c r="J127" s="33"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="26" t="s">
@@ -11884,18 +11884,18 @@
       <c r="B128" s="8">
         <v>40943</v>
       </c>
-      <c r="C128" s="33">
-        <v>0</v>
-      </c>
-      <c r="D128" s="33">
+      <c r="C128" s="31">
+        <v>0</v>
+      </c>
+      <c r="D128" s="31">
         <v>-8.6999999999999993</v>
       </c>
       <c r="E128" s="8"/>
-      <c r="F128" s="34"/>
-      <c r="G128" s="34"/>
-      <c r="H128" s="34"/>
-      <c r="I128" s="34"/>
-      <c r="J128" s="35"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="32"/>
+      <c r="J128" s="33"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="26" t="s">
@@ -11904,18 +11904,18 @@
       <c r="B129" s="8">
         <v>40944</v>
       </c>
-      <c r="C129" s="33">
-        <v>0</v>
-      </c>
-      <c r="D129" s="33">
+      <c r="C129" s="31">
+        <v>0</v>
+      </c>
+      <c r="D129" s="31">
         <v>-9.6999999999999993</v>
       </c>
       <c r="E129" s="8"/>
-      <c r="F129" s="34"/>
-      <c r="G129" s="34"/>
-      <c r="H129" s="34"/>
-      <c r="I129" s="34"/>
-      <c r="J129" s="35"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="32"/>
+      <c r="H129" s="32"/>
+      <c r="I129" s="32"/>
+      <c r="J129" s="33"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="26" t="s">
@@ -11924,18 +11924,18 @@
       <c r="B130" s="8">
         <v>40945</v>
       </c>
-      <c r="C130" s="33">
-        <v>0</v>
-      </c>
-      <c r="D130" s="33">
+      <c r="C130" s="31">
+        <v>0</v>
+      </c>
+      <c r="D130" s="31">
         <v>-9.6999999999999993</v>
       </c>
       <c r="E130" s="8"/>
-      <c r="F130" s="34"/>
-      <c r="G130" s="34"/>
-      <c r="H130" s="34"/>
-      <c r="I130" s="34"/>
-      <c r="J130" s="35"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="33"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="26" t="s">
@@ -11944,18 +11944,18 @@
       <c r="B131" s="8">
         <v>40946</v>
       </c>
-      <c r="C131" s="33">
-        <v>0</v>
-      </c>
-      <c r="D131" s="33">
+      <c r="C131" s="31">
+        <v>0</v>
+      </c>
+      <c r="D131" s="31">
         <v>-10.6</v>
       </c>
       <c r="E131" s="8"/>
-      <c r="F131" s="34"/>
-      <c r="G131" s="34"/>
-      <c r="H131" s="34"/>
-      <c r="I131" s="34"/>
-      <c r="J131" s="35"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="32"/>
+      <c r="J131" s="33"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="26" t="s">
@@ -11964,18 +11964,18 @@
       <c r="B132" s="8">
         <v>40947</v>
       </c>
-      <c r="C132" s="33">
-        <v>0</v>
-      </c>
-      <c r="D132" s="33">
+      <c r="C132" s="31">
+        <v>0</v>
+      </c>
+      <c r="D132" s="31">
         <v>-6.6</v>
       </c>
       <c r="E132" s="8"/>
-      <c r="F132" s="34"/>
-      <c r="G132" s="34"/>
-      <c r="H132" s="34"/>
-      <c r="I132" s="34"/>
-      <c r="J132" s="35"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="32"/>
+      <c r="I132" s="32"/>
+      <c r="J132" s="33"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="26" t="s">
@@ -11984,18 +11984,18 @@
       <c r="B133" s="8">
         <v>40948</v>
       </c>
-      <c r="C133" s="33">
-        <v>0</v>
-      </c>
-      <c r="D133" s="33">
+      <c r="C133" s="31">
+        <v>0</v>
+      </c>
+      <c r="D133" s="31">
         <v>-7.2</v>
       </c>
       <c r="E133" s="8"/>
-      <c r="F133" s="34"/>
-      <c r="G133" s="34"/>
-      <c r="H133" s="34"/>
-      <c r="I133" s="34"/>
-      <c r="J133" s="35"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="32"/>
+      <c r="H133" s="32"/>
+      <c r="I133" s="32"/>
+      <c r="J133" s="33"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="26" t="s">
@@ -12004,18 +12004,18 @@
       <c r="B134" s="8">
         <v>40949</v>
       </c>
-      <c r="C134" s="33">
-        <v>0</v>
-      </c>
-      <c r="D134" s="33">
+      <c r="C134" s="31">
+        <v>0</v>
+      </c>
+      <c r="D134" s="31">
         <v>-6.8</v>
       </c>
       <c r="E134" s="8"/>
-      <c r="F134" s="34"/>
-      <c r="G134" s="34"/>
-      <c r="H134" s="34"/>
-      <c r="I134" s="34"/>
-      <c r="J134" s="35"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="32"/>
+      <c r="I134" s="32"/>
+      <c r="J134" s="33"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="26" t="s">
@@ -12024,18 +12024,18 @@
       <c r="B135" s="8">
         <v>40950</v>
       </c>
-      <c r="C135" s="33">
-        <v>0</v>
-      </c>
-      <c r="D135" s="33">
+      <c r="C135" s="31">
+        <v>0</v>
+      </c>
+      <c r="D135" s="31">
         <v>-9</v>
       </c>
       <c r="E135" s="8"/>
-      <c r="F135" s="34"/>
-      <c r="G135" s="34"/>
-      <c r="H135" s="34"/>
-      <c r="I135" s="34"/>
-      <c r="J135" s="35"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="32"/>
+      <c r="I135" s="32"/>
+      <c r="J135" s="33"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="26" t="s">
@@ -12044,18 +12044,18 @@
       <c r="B136" s="8">
         <v>40951</v>
       </c>
-      <c r="C136" s="33">
-        <v>0</v>
-      </c>
-      <c r="D136" s="33">
+      <c r="C136" s="31">
+        <v>0</v>
+      </c>
+      <c r="D136" s="31">
         <v>-9.1</v>
       </c>
       <c r="E136" s="8"/>
-      <c r="F136" s="34"/>
-      <c r="G136" s="34"/>
-      <c r="H136" s="34"/>
-      <c r="I136" s="34"/>
-      <c r="J136" s="35"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="32"/>
+      <c r="H136" s="32"/>
+      <c r="I136" s="32"/>
+      <c r="J136" s="33"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="26" t="s">
@@ -12064,18 +12064,18 @@
       <c r="B137" s="8">
         <v>40952</v>
       </c>
-      <c r="C137" s="33">
-        <v>0</v>
-      </c>
-      <c r="D137" s="33">
+      <c r="C137" s="31">
+        <v>0</v>
+      </c>
+      <c r="D137" s="31">
         <v>-4.5</v>
       </c>
       <c r="E137" s="8"/>
-      <c r="F137" s="34"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="34"/>
-      <c r="I137" s="34"/>
-      <c r="J137" s="35"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="33"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="26" t="s">
@@ -12084,18 +12084,18 @@
       <c r="B138" s="8">
         <v>40953</v>
       </c>
-      <c r="C138" s="33">
+      <c r="C138" s="31">
         <v>0.6</v>
       </c>
-      <c r="D138" s="33">
+      <c r="D138" s="31">
         <v>-0.6</v>
       </c>
       <c r="E138" s="8"/>
-      <c r="F138" s="34"/>
-      <c r="G138" s="34"/>
-      <c r="H138" s="34"/>
-      <c r="I138" s="34"/>
-      <c r="J138" s="35"/>
+      <c r="F138" s="32"/>
+      <c r="G138" s="32"/>
+      <c r="H138" s="32"/>
+      <c r="I138" s="32"/>
+      <c r="J138" s="33"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
@@ -12104,18 +12104,18 @@
       <c r="B139" s="8">
         <v>40954</v>
       </c>
-      <c r="C139" s="33">
+      <c r="C139" s="31">
         <v>1.6</v>
       </c>
-      <c r="D139" s="33">
+      <c r="D139" s="31">
         <v>4</v>
       </c>
       <c r="E139" s="8"/>
-      <c r="F139" s="34"/>
-      <c r="G139" s="34"/>
-      <c r="H139" s="34"/>
-      <c r="I139" s="34"/>
-      <c r="J139" s="35"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="32"/>
+      <c r="I139" s="32"/>
+      <c r="J139" s="33"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="26" t="s">
@@ -12124,18 +12124,18 @@
       <c r="B140" s="8">
         <v>40955</v>
       </c>
-      <c r="C140" s="33">
+      <c r="C140" s="31">
         <v>0.2</v>
       </c>
-      <c r="D140" s="33">
+      <c r="D140" s="31">
         <v>4.0999999999999996</v>
       </c>
       <c r="E140" s="8"/>
-      <c r="F140" s="34"/>
-      <c r="G140" s="34"/>
-      <c r="H140" s="34"/>
-      <c r="I140" s="34"/>
-      <c r="J140" s="35"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="32"/>
+      <c r="H140" s="32"/>
+      <c r="I140" s="32"/>
+      <c r="J140" s="33"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="26" t="s">
@@ -12144,18 +12144,18 @@
       <c r="B141" s="8">
         <v>40956</v>
       </c>
-      <c r="C141" s="33">
-        <v>0</v>
-      </c>
-      <c r="D141" s="33">
+      <c r="C141" s="31">
+        <v>0</v>
+      </c>
+      <c r="D141" s="31">
         <v>4.3</v>
       </c>
       <c r="E141" s="8"/>
-      <c r="F141" s="34"/>
-      <c r="G141" s="34"/>
-      <c r="H141" s="34"/>
-      <c r="I141" s="34"/>
-      <c r="J141" s="35"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="32"/>
+      <c r="I141" s="32"/>
+      <c r="J141" s="33"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="26" t="s">
@@ -12164,18 +12164,18 @@
       <c r="B142" s="8">
         <v>40957</v>
       </c>
-      <c r="C142" s="33">
+      <c r="C142" s="31">
         <v>2</v>
       </c>
-      <c r="D142" s="33">
+      <c r="D142" s="31">
         <v>5.8</v>
       </c>
       <c r="E142" s="8"/>
-      <c r="F142" s="34"/>
-      <c r="G142" s="34"/>
-      <c r="H142" s="34"/>
-      <c r="I142" s="34"/>
-      <c r="J142" s="35"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="32"/>
+      <c r="I142" s="32"/>
+      <c r="J142" s="33"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="26" t="s">
@@ -12184,18 +12184,18 @@
       <c r="B143" s="8">
         <v>40958</v>
       </c>
-      <c r="C143" s="33">
-        <v>0</v>
-      </c>
-      <c r="D143" s="33">
+      <c r="C143" s="31">
+        <v>0</v>
+      </c>
+      <c r="D143" s="31">
         <v>3.7</v>
       </c>
       <c r="E143" s="8"/>
-      <c r="F143" s="34"/>
-      <c r="G143" s="34"/>
-      <c r="H143" s="34"/>
-      <c r="I143" s="34"/>
-      <c r="J143" s="35"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="32"/>
+      <c r="I143" s="32"/>
+      <c r="J143" s="33"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="26" t="s">
@@ -12204,18 +12204,18 @@
       <c r="B144" s="8">
         <v>40959</v>
       </c>
-      <c r="C144" s="33">
-        <v>0</v>
-      </c>
-      <c r="D144" s="33">
+      <c r="C144" s="31">
+        <v>0</v>
+      </c>
+      <c r="D144" s="31">
         <v>1.3</v>
       </c>
       <c r="E144" s="8"/>
-      <c r="F144" s="34"/>
-      <c r="G144" s="34"/>
-      <c r="H144" s="34"/>
-      <c r="I144" s="34"/>
-      <c r="J144" s="35"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="32"/>
+      <c r="I144" s="32"/>
+      <c r="J144" s="33"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="26" t="s">
@@ -12224,18 +12224,18 @@
       <c r="B145" s="8">
         <v>40960</v>
       </c>
-      <c r="C145" s="33">
-        <v>0</v>
-      </c>
-      <c r="D145" s="33">
+      <c r="C145" s="31">
+        <v>0</v>
+      </c>
+      <c r="D145" s="31">
         <v>-0.3</v>
       </c>
       <c r="E145" s="8"/>
-      <c r="F145" s="34"/>
-      <c r="G145" s="34"/>
-      <c r="H145" s="34"/>
-      <c r="I145" s="34"/>
-      <c r="J145" s="35"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
+      <c r="H145" s="32"/>
+      <c r="I145" s="32"/>
+      <c r="J145" s="33"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="26" t="s">
@@ -12244,18 +12244,18 @@
       <c r="B146" s="8">
         <v>40961</v>
       </c>
-      <c r="C146" s="33">
-        <v>0</v>
-      </c>
-      <c r="D146" s="33">
+      <c r="C146" s="31">
+        <v>0</v>
+      </c>
+      <c r="D146" s="31">
         <v>1.3</v>
       </c>
       <c r="E146" s="8"/>
-      <c r="F146" s="34"/>
-      <c r="G146" s="34"/>
-      <c r="H146" s="34"/>
-      <c r="I146" s="34"/>
-      <c r="J146" s="35"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="32"/>
+      <c r="I146" s="32"/>
+      <c r="J146" s="33"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="26" t="s">
@@ -12264,18 +12264,18 @@
       <c r="B147" s="8">
         <v>40962</v>
       </c>
-      <c r="C147" s="33">
-        <v>0</v>
-      </c>
-      <c r="D147" s="33">
+      <c r="C147" s="31">
+        <v>0</v>
+      </c>
+      <c r="D147" s="31">
         <v>4.0999999999999996</v>
       </c>
       <c r="E147" s="8"/>
-      <c r="F147" s="34"/>
-      <c r="G147" s="34"/>
-      <c r="H147" s="34"/>
-      <c r="I147" s="34"/>
-      <c r="J147" s="35"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="32"/>
+      <c r="I147" s="32"/>
+      <c r="J147" s="33"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="26" t="s">
@@ -12284,18 +12284,18 @@
       <c r="B148" s="8">
         <v>40963</v>
       </c>
-      <c r="C148" s="33">
-        <v>0</v>
-      </c>
-      <c r="D148" s="33">
+      <c r="C148" s="31">
+        <v>0</v>
+      </c>
+      <c r="D148" s="31">
         <v>6.7</v>
       </c>
       <c r="E148" s="8"/>
-      <c r="F148" s="34"/>
-      <c r="G148" s="34"/>
-      <c r="H148" s="34"/>
-      <c r="I148" s="34"/>
-      <c r="J148" s="35"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="32"/>
+      <c r="I148" s="32"/>
+      <c r="J148" s="33"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="26" t="s">
@@ -12304,18 +12304,18 @@
       <c r="B149" s="8">
         <v>40964</v>
       </c>
-      <c r="C149" s="33">
+      <c r="C149" s="31">
         <v>0.4</v>
       </c>
-      <c r="D149" s="33">
+      <c r="D149" s="31">
         <v>7.9</v>
       </c>
       <c r="E149" s="8"/>
-      <c r="F149" s="34"/>
-      <c r="G149" s="34"/>
-      <c r="H149" s="34"/>
-      <c r="I149" s="34"/>
-      <c r="J149" s="35"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="32"/>
+      <c r="I149" s="32"/>
+      <c r="J149" s="33"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
@@ -12324,18 +12324,18 @@
       <c r="B150" s="8">
         <v>40965</v>
       </c>
-      <c r="C150" s="33">
-        <v>0</v>
-      </c>
-      <c r="D150" s="33">
+      <c r="C150" s="31">
+        <v>0</v>
+      </c>
+      <c r="D150" s="31">
         <v>6.3</v>
       </c>
       <c r="E150" s="8"/>
-      <c r="F150" s="34"/>
-      <c r="G150" s="34"/>
-      <c r="H150" s="34"/>
-      <c r="I150" s="34"/>
-      <c r="J150" s="35"/>
+      <c r="F150" s="32"/>
+      <c r="G150" s="32"/>
+      <c r="H150" s="32"/>
+      <c r="I150" s="32"/>
+      <c r="J150" s="33"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="26" t="s">
@@ -12344,18 +12344,18 @@
       <c r="B151" s="8">
         <v>40966</v>
       </c>
-      <c r="C151" s="33">
+      <c r="C151" s="31">
         <v>0.2</v>
       </c>
-      <c r="D151" s="33">
+      <c r="D151" s="31">
         <v>5.0999999999999996</v>
       </c>
       <c r="E151" s="8"/>
-      <c r="F151" s="34"/>
-      <c r="G151" s="34"/>
-      <c r="H151" s="34"/>
-      <c r="I151" s="34"/>
-      <c r="J151" s="35"/>
+      <c r="F151" s="32"/>
+      <c r="G151" s="32"/>
+      <c r="H151" s="32"/>
+      <c r="I151" s="32"/>
+      <c r="J151" s="33"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="26" t="s">
@@ -12364,18 +12364,18 @@
       <c r="B152" s="8">
         <v>40967</v>
       </c>
-      <c r="C152" s="33">
-        <v>0</v>
-      </c>
-      <c r="D152" s="33">
+      <c r="C152" s="31">
+        <v>0</v>
+      </c>
+      <c r="D152" s="31">
         <v>6.4</v>
       </c>
       <c r="E152" s="8"/>
-      <c r="F152" s="34"/>
-      <c r="G152" s="34"/>
-      <c r="H152" s="34"/>
-      <c r="I152" s="34"/>
-      <c r="J152" s="35"/>
+      <c r="F152" s="32"/>
+      <c r="G152" s="32"/>
+      <c r="H152" s="32"/>
+      <c r="I152" s="32"/>
+      <c r="J152" s="33"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="26" t="s">
@@ -12384,17 +12384,17 @@
       <c r="B153" s="8">
         <v>40968</v>
       </c>
-      <c r="C153" s="33">
-        <v>0</v>
-      </c>
-      <c r="D153" s="33">
+      <c r="C153" s="31">
+        <v>0</v>
+      </c>
+      <c r="D153" s="31">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F153" s="34"/>
-      <c r="G153" s="34"/>
-      <c r="H153" s="34"/>
-      <c r="I153" s="34"/>
-      <c r="J153" s="35"/>
+      <c r="F153" s="32"/>
+      <c r="G153" s="32"/>
+      <c r="H153" s="32"/>
+      <c r="I153" s="32"/>
+      <c r="J153" s="33"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="11">
@@ -12409,11 +12409,11 @@
       <c r="D154" s="5">
         <v>7.7791666666666677</v>
       </c>
-      <c r="F154" s="34"/>
-      <c r="G154" s="34"/>
-      <c r="H154" s="34"/>
-      <c r="I154" s="34"/>
-      <c r="J154" s="35"/>
+      <c r="F154" s="32"/>
+      <c r="G154" s="32"/>
+      <c r="H154" s="32"/>
+      <c r="I154" s="32"/>
+      <c r="J154" s="33"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="11">
@@ -12428,11 +12428,11 @@
       <c r="D155" s="5">
         <v>6.7041666666666666</v>
       </c>
-      <c r="F155" s="34"/>
-      <c r="G155" s="34"/>
-      <c r="H155" s="34"/>
-      <c r="I155" s="34"/>
-      <c r="J155" s="35"/>
+      <c r="F155" s="32"/>
+      <c r="G155" s="32"/>
+      <c r="H155" s="32"/>
+      <c r="I155" s="32"/>
+      <c r="J155" s="33"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="11">
@@ -12447,11 +12447,11 @@
       <c r="D156" s="5">
         <v>7.333333333333333</v>
       </c>
-      <c r="F156" s="34"/>
-      <c r="G156" s="34"/>
-      <c r="H156" s="34"/>
-      <c r="I156" s="34"/>
-      <c r="J156" s="35"/>
+      <c r="F156" s="32"/>
+      <c r="G156" s="32"/>
+      <c r="H156" s="32"/>
+      <c r="I156" s="32"/>
+      <c r="J156" s="33"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="11">
@@ -12466,11 +12466,11 @@
       <c r="D157" s="5">
         <v>7.445833333333332</v>
       </c>
-      <c r="F157" s="34"/>
-      <c r="G157" s="34"/>
-      <c r="H157" s="34"/>
-      <c r="I157" s="34"/>
-      <c r="J157" s="35"/>
+      <c r="F157" s="32"/>
+      <c r="G157" s="32"/>
+      <c r="H157" s="32"/>
+      <c r="I157" s="32"/>
+      <c r="J157" s="33"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="11">
@@ -12485,11 +12485,11 @@
       <c r="D158" s="5">
         <v>4.1958333333333337</v>
       </c>
-      <c r="F158" s="34"/>
-      <c r="G158" s="34"/>
-      <c r="H158" s="34"/>
-      <c r="I158" s="34"/>
-      <c r="J158" s="35"/>
+      <c r="F158" s="32"/>
+      <c r="G158" s="32"/>
+      <c r="H158" s="32"/>
+      <c r="I158" s="32"/>
+      <c r="J158" s="33"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="11">
@@ -12504,11 +12504,11 @@
       <c r="D159" s="5">
         <v>5.1086956521739122</v>
       </c>
-      <c r="F159" s="34"/>
-      <c r="G159" s="34"/>
-      <c r="H159" s="34"/>
-      <c r="I159" s="34"/>
-      <c r="J159" s="35"/>
+      <c r="F159" s="32"/>
+      <c r="G159" s="32"/>
+      <c r="H159" s="32"/>
+      <c r="I159" s="32"/>
+      <c r="J159" s="33"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="11">
@@ -12523,11 +12523,11 @@
       <c r="D160" s="5">
         <v>4.7625000000000002</v>
       </c>
-      <c r="F160" s="34"/>
-      <c r="G160" s="34"/>
-      <c r="H160" s="34"/>
-      <c r="I160" s="34"/>
-      <c r="J160" s="35"/>
+      <c r="F160" s="32"/>
+      <c r="G160" s="32"/>
+      <c r="H160" s="32"/>
+      <c r="I160" s="32"/>
+      <c r="J160" s="33"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="11">
@@ -12542,11 +12542,11 @@
       <c r="D161" s="5">
         <v>5.0874999999999995</v>
       </c>
-      <c r="F161" s="34"/>
-      <c r="G161" s="34"/>
-      <c r="H161" s="34"/>
-      <c r="I161" s="34"/>
-      <c r="J161" s="35"/>
+      <c r="F161" s="32"/>
+      <c r="G161" s="32"/>
+      <c r="H161" s="32"/>
+      <c r="I161" s="32"/>
+      <c r="J161" s="33"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="11">
@@ -12561,11 +12561,11 @@
       <c r="D162" s="5">
         <v>4.7541666666666664</v>
       </c>
-      <c r="F162" s="34"/>
-      <c r="G162" s="34"/>
-      <c r="H162" s="34"/>
-      <c r="I162" s="34"/>
-      <c r="J162" s="35"/>
+      <c r="F162" s="32"/>
+      <c r="G162" s="32"/>
+      <c r="H162" s="32"/>
+      <c r="I162" s="32"/>
+      <c r="J162" s="33"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="11">
@@ -12580,11 +12580,11 @@
       <c r="D163" s="5">
         <v>6.2125000000000012</v>
       </c>
-      <c r="F163" s="34"/>
-      <c r="G163" s="34"/>
-      <c r="H163" s="34"/>
-      <c r="I163" s="34"/>
-      <c r="J163" s="35"/>
+      <c r="F163" s="32"/>
+      <c r="G163" s="32"/>
+      <c r="H163" s="32"/>
+      <c r="I163" s="32"/>
+      <c r="J163" s="33"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="11">
@@ -12599,11 +12599,11 @@
       <c r="D164" s="5">
         <v>8.4124999999999996</v>
       </c>
-      <c r="F164" s="34"/>
-      <c r="G164" s="34"/>
-      <c r="H164" s="34"/>
-      <c r="I164" s="34"/>
-      <c r="J164" s="35"/>
+      <c r="F164" s="32"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="32"/>
+      <c r="I164" s="32"/>
+      <c r="J164" s="33"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="11">
@@ -12618,11 +12618,11 @@
       <c r="D165" s="5">
         <v>10.145833333333332</v>
       </c>
-      <c r="F165" s="34"/>
-      <c r="G165" s="34"/>
-      <c r="H165" s="34"/>
-      <c r="I165" s="34"/>
-      <c r="J165" s="35"/>
+      <c r="F165" s="32"/>
+      <c r="G165" s="32"/>
+      <c r="H165" s="32"/>
+      <c r="I165" s="32"/>
+      <c r="J165" s="33"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="11">
@@ -12637,11 +12637,11 @@
       <c r="D166" s="5">
         <v>7.4750000000000005</v>
       </c>
-      <c r="F166" s="34"/>
-      <c r="G166" s="34"/>
-      <c r="H166" s="34"/>
-      <c r="I166" s="34"/>
-      <c r="J166" s="35"/>
+      <c r="F166" s="32"/>
+      <c r="G166" s="32"/>
+      <c r="H166" s="32"/>
+      <c r="I166" s="32"/>
+      <c r="J166" s="33"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="11">
@@ -12656,11 +12656,11 @@
       <c r="D167" s="5">
         <v>7.1749999999999998</v>
       </c>
-      <c r="F167" s="34"/>
-      <c r="G167" s="34"/>
-      <c r="H167" s="34"/>
-      <c r="I167" s="34"/>
-      <c r="J167" s="35"/>
+      <c r="F167" s="32"/>
+      <c r="G167" s="32"/>
+      <c r="H167" s="32"/>
+      <c r="I167" s="32"/>
+      <c r="J167" s="33"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="11">
@@ -12675,11 +12675,11 @@
       <c r="D168" s="5">
         <v>8.6458333333333321</v>
       </c>
-      <c r="F168" s="34"/>
-      <c r="G168" s="34"/>
-      <c r="H168" s="34"/>
-      <c r="I168" s="34"/>
-      <c r="J168" s="35"/>
+      <c r="F168" s="32"/>
+      <c r="G168" s="32"/>
+      <c r="H168" s="32"/>
+      <c r="I168" s="32"/>
+      <c r="J168" s="33"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="11">
@@ -12694,11 +12694,11 @@
       <c r="D169" s="5">
         <v>13.466666666666669</v>
       </c>
-      <c r="F169" s="34"/>
-      <c r="G169" s="34"/>
-      <c r="H169" s="34"/>
-      <c r="I169" s="34"/>
-      <c r="J169" s="35"/>
+      <c r="F169" s="32"/>
+      <c r="G169" s="32"/>
+      <c r="H169" s="32"/>
+      <c r="I169" s="32"/>
+      <c r="J169" s="33"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="11">
@@ -12713,11 +12713,11 @@
       <c r="D170" s="5">
         <v>13.920833333333334</v>
       </c>
-      <c r="F170" s="34"/>
-      <c r="G170" s="34"/>
-      <c r="H170" s="34"/>
-      <c r="I170" s="34"/>
-      <c r="J170" s="35"/>
+      <c r="F170" s="32"/>
+      <c r="G170" s="32"/>
+      <c r="H170" s="32"/>
+      <c r="I170" s="32"/>
+      <c r="J170" s="33"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="11">
@@ -12732,11 +12732,11 @@
       <c r="D171" s="5">
         <v>7.9208333333333343</v>
       </c>
-      <c r="F171" s="34"/>
-      <c r="G171" s="34"/>
-      <c r="H171" s="34"/>
-      <c r="I171" s="34"/>
-      <c r="J171" s="35"/>
+      <c r="F171" s="32"/>
+      <c r="G171" s="32"/>
+      <c r="H171" s="32"/>
+      <c r="I171" s="32"/>
+      <c r="J171" s="33"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="11">
@@ -12751,11 +12751,11 @@
       <c r="D172" s="5">
         <v>6.7624999999999993</v>
       </c>
-      <c r="F172" s="34"/>
-      <c r="G172" s="34"/>
-      <c r="H172" s="34"/>
-      <c r="I172" s="34"/>
-      <c r="J172" s="35"/>
+      <c r="F172" s="32"/>
+      <c r="G172" s="32"/>
+      <c r="H172" s="32"/>
+      <c r="I172" s="32"/>
+      <c r="J172" s="33"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="11">
@@ -12770,11 +12770,11 @@
       <c r="D173" s="5">
         <v>7.2874999999999988</v>
       </c>
-      <c r="F173" s="34"/>
-      <c r="G173" s="34"/>
-      <c r="H173" s="34"/>
-      <c r="I173" s="34"/>
-      <c r="J173" s="35"/>
+      <c r="F173" s="32"/>
+      <c r="G173" s="32"/>
+      <c r="H173" s="32"/>
+      <c r="I173" s="32"/>
+      <c r="J173" s="33"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="11">
@@ -12789,11 +12789,11 @@
       <c r="D174" s="5">
         <v>10.237500000000001</v>
       </c>
-      <c r="F174" s="34"/>
-      <c r="G174" s="34"/>
-      <c r="H174" s="34"/>
-      <c r="I174" s="34"/>
-      <c r="J174" s="35"/>
+      <c r="F174" s="32"/>
+      <c r="G174" s="32"/>
+      <c r="H174" s="32"/>
+      <c r="I174" s="32"/>
+      <c r="J174" s="33"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="11">
@@ -12808,11 +12808,11 @@
       <c r="D175" s="5">
         <v>12.770833333333334</v>
       </c>
-      <c r="F175" s="34"/>
-      <c r="G175" s="34"/>
-      <c r="H175" s="34"/>
-      <c r="I175" s="34"/>
-      <c r="J175" s="35"/>
+      <c r="F175" s="32"/>
+      <c r="G175" s="32"/>
+      <c r="H175" s="32"/>
+      <c r="I175" s="32"/>
+      <c r="J175" s="33"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="11">
@@ -12827,11 +12827,11 @@
       <c r="D176" s="5">
         <v>13.266666666666664</v>
       </c>
-      <c r="F176" s="34"/>
-      <c r="G176" s="34"/>
-      <c r="H176" s="34"/>
-      <c r="I176" s="34"/>
-      <c r="J176" s="35"/>
+      <c r="F176" s="32"/>
+      <c r="G176" s="32"/>
+      <c r="H176" s="32"/>
+      <c r="I176" s="32"/>
+      <c r="J176" s="33"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="11">
@@ -12846,11 +12846,11 @@
       <c r="D177" s="5">
         <v>13.670833333333334</v>
       </c>
-      <c r="F177" s="34"/>
-      <c r="G177" s="34"/>
-      <c r="H177" s="34"/>
-      <c r="I177" s="34"/>
-      <c r="J177" s="35"/>
+      <c r="F177" s="32"/>
+      <c r="G177" s="32"/>
+      <c r="H177" s="32"/>
+      <c r="I177" s="32"/>
+      <c r="J177" s="33"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="11">
@@ -12865,11 +12865,11 @@
       <c r="D178" s="5">
         <v>14.429166666666667</v>
       </c>
-      <c r="F178" s="34"/>
-      <c r="G178" s="34"/>
-      <c r="H178" s="34"/>
-      <c r="I178" s="34"/>
-      <c r="J178" s="35"/>
+      <c r="F178" s="32"/>
+      <c r="G178" s="32"/>
+      <c r="H178" s="32"/>
+      <c r="I178" s="32"/>
+      <c r="J178" s="33"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="11">
@@ -12884,11 +12884,11 @@
       <c r="D179" s="5">
         <v>13.874999999999998</v>
       </c>
-      <c r="F179" s="34"/>
-      <c r="G179" s="34"/>
-      <c r="H179" s="34"/>
-      <c r="I179" s="34"/>
-      <c r="J179" s="35"/>
+      <c r="F179" s="32"/>
+      <c r="G179" s="32"/>
+      <c r="H179" s="32"/>
+      <c r="I179" s="32"/>
+      <c r="J179" s="33"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="11">
@@ -12903,11 +12903,11 @@
       <c r="D180" s="5">
         <v>13.52916666666667</v>
       </c>
-      <c r="F180" s="34"/>
-      <c r="G180" s="34"/>
-      <c r="H180" s="34"/>
-      <c r="I180" s="34"/>
-      <c r="J180" s="35"/>
+      <c r="F180" s="32"/>
+      <c r="G180" s="32"/>
+      <c r="H180" s="32"/>
+      <c r="I180" s="32"/>
+      <c r="J180" s="33"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="11">
@@ -12922,11 +12922,11 @@
       <c r="D181" s="5">
         <v>14.241666666666667</v>
       </c>
-      <c r="F181" s="34"/>
-      <c r="G181" s="34"/>
-      <c r="H181" s="34"/>
-      <c r="I181" s="34"/>
-      <c r="J181" s="35"/>
+      <c r="F181" s="32"/>
+      <c r="G181" s="32"/>
+      <c r="H181" s="32"/>
+      <c r="I181" s="32"/>
+      <c r="J181" s="33"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="11">
@@ -12941,11 +12941,11 @@
       <c r="D182" s="5">
         <v>12.820833333333331</v>
       </c>
-      <c r="F182" s="34"/>
-      <c r="G182" s="34"/>
-      <c r="H182" s="34"/>
-      <c r="I182" s="34"/>
-      <c r="J182" s="35"/>
+      <c r="F182" s="32"/>
+      <c r="G182" s="32"/>
+      <c r="H182" s="32"/>
+      <c r="I182" s="32"/>
+      <c r="J182" s="33"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="11">
@@ -12960,11 +12960,11 @@
       <c r="D183" s="5">
         <v>10.46521739130435</v>
       </c>
-      <c r="F183" s="34"/>
-      <c r="G183" s="34"/>
-      <c r="H183" s="34"/>
-      <c r="I183" s="34"/>
-      <c r="J183" s="35"/>
+      <c r="F183" s="32"/>
+      <c r="G183" s="32"/>
+      <c r="H183" s="32"/>
+      <c r="I183" s="32"/>
+      <c r="J183" s="33"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="11">
@@ -12979,11 +12979,11 @@
       <c r="D184" s="5">
         <v>8.8916666666666657</v>
       </c>
-      <c r="F184" s="34"/>
-      <c r="G184" s="34"/>
-      <c r="H184" s="34"/>
-      <c r="I184" s="34"/>
-      <c r="J184" s="35"/>
+      <c r="F184" s="32"/>
+      <c r="G184" s="32"/>
+      <c r="H184" s="32"/>
+      <c r="I184" s="32"/>
+      <c r="J184" s="33"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="11">
@@ -12998,11 +12998,11 @@
       <c r="D185" s="5">
         <v>6.6125000000000007</v>
       </c>
-      <c r="F185" s="34"/>
-      <c r="G185" s="34"/>
-      <c r="H185" s="34"/>
-      <c r="I185" s="34"/>
-      <c r="J185" s="35"/>
+      <c r="F185" s="32"/>
+      <c r="G185" s="32"/>
+      <c r="H185" s="32"/>
+      <c r="I185" s="32"/>
+      <c r="J185" s="33"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="11">
@@ -13017,11 +13017,11 @@
       <c r="D186" s="5">
         <v>8.9791666666666661</v>
       </c>
-      <c r="F186" s="34"/>
-      <c r="G186" s="34"/>
-      <c r="H186" s="34"/>
-      <c r="I186" s="34"/>
-      <c r="J186" s="35"/>
+      <c r="F186" s="32"/>
+      <c r="G186" s="32"/>
+      <c r="H186" s="32"/>
+      <c r="I186" s="32"/>
+      <c r="J186" s="33"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="11">
@@ -13036,11 +13036,11 @@
       <c r="D187" s="5">
         <v>11.700000000000003</v>
       </c>
-      <c r="F187" s="34"/>
-      <c r="G187" s="34"/>
-      <c r="H187" s="34"/>
-      <c r="I187" s="34"/>
-      <c r="J187" s="35"/>
+      <c r="F187" s="32"/>
+      <c r="G187" s="32"/>
+      <c r="H187" s="32"/>
+      <c r="I187" s="32"/>
+      <c r="J187" s="33"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="11">
@@ -13055,11 +13055,11 @@
       <c r="D188" s="5">
         <v>10.137499999999999</v>
       </c>
-      <c r="F188" s="34"/>
-      <c r="G188" s="34"/>
-      <c r="H188" s="34"/>
-      <c r="I188" s="34"/>
-      <c r="J188" s="35"/>
+      <c r="F188" s="32"/>
+      <c r="G188" s="32"/>
+      <c r="H188" s="32"/>
+      <c r="I188" s="32"/>
+      <c r="J188" s="33"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="11">
@@ -13074,11 +13074,11 @@
       <c r="D189" s="5">
         <v>8.1833333333333336</v>
       </c>
-      <c r="F189" s="34"/>
-      <c r="G189" s="34"/>
-      <c r="H189" s="34"/>
-      <c r="I189" s="34"/>
-      <c r="J189" s="35"/>
+      <c r="F189" s="32"/>
+      <c r="G189" s="32"/>
+      <c r="H189" s="32"/>
+      <c r="I189" s="32"/>
+      <c r="J189" s="33"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="11">
@@ -13093,11 +13093,11 @@
       <c r="D190" s="5">
         <v>8.2874999999999996</v>
       </c>
-      <c r="F190" s="34"/>
-      <c r="G190" s="34"/>
-      <c r="H190" s="34"/>
-      <c r="I190" s="34"/>
-      <c r="J190" s="35"/>
+      <c r="F190" s="32"/>
+      <c r="G190" s="32"/>
+      <c r="H190" s="32"/>
+      <c r="I190" s="32"/>
+      <c r="J190" s="33"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="11">
@@ -13112,11 +13112,11 @@
       <c r="D191" s="5">
         <v>6.55</v>
       </c>
-      <c r="F191" s="34"/>
-      <c r="G191" s="34"/>
-      <c r="H191" s="34"/>
-      <c r="I191" s="34"/>
-      <c r="J191" s="35"/>
+      <c r="F191" s="32"/>
+      <c r="G191" s="32"/>
+      <c r="H191" s="32"/>
+      <c r="I191" s="32"/>
+      <c r="J191" s="33"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="11">
@@ -13131,11 +13131,11 @@
       <c r="D192" s="5">
         <v>4.9083333333333323</v>
       </c>
-      <c r="F192" s="34"/>
-      <c r="G192" s="34"/>
-      <c r="H192" s="34"/>
-      <c r="I192" s="34"/>
-      <c r="J192" s="35"/>
+      <c r="F192" s="32"/>
+      <c r="G192" s="32"/>
+      <c r="H192" s="32"/>
+      <c r="I192" s="32"/>
+      <c r="J192" s="33"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="11">
@@ -13150,11 +13150,11 @@
       <c r="D193" s="5">
         <v>6.3666666666666671</v>
       </c>
-      <c r="F193" s="34"/>
-      <c r="G193" s="34"/>
-      <c r="H193" s="34"/>
-      <c r="I193" s="34"/>
-      <c r="J193" s="35"/>
+      <c r="F193" s="32"/>
+      <c r="G193" s="32"/>
+      <c r="H193" s="32"/>
+      <c r="I193" s="32"/>
+      <c r="J193" s="33"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="11">
@@ -13169,11 +13169,11 @@
       <c r="D194" s="5">
         <v>11.504166666666665</v>
       </c>
-      <c r="F194" s="34"/>
-      <c r="G194" s="34"/>
-      <c r="H194" s="34"/>
-      <c r="I194" s="34"/>
-      <c r="J194" s="35"/>
+      <c r="F194" s="32"/>
+      <c r="G194" s="32"/>
+      <c r="H194" s="32"/>
+      <c r="I194" s="32"/>
+      <c r="J194" s="33"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="11">
@@ -13188,11 +13188,11 @@
       <c r="D195" s="5">
         <v>8.3500000000000014</v>
       </c>
-      <c r="F195" s="34"/>
-      <c r="G195" s="34"/>
-      <c r="H195" s="34"/>
-      <c r="I195" s="34"/>
-      <c r="J195" s="35"/>
+      <c r="F195" s="32"/>
+      <c r="G195" s="32"/>
+      <c r="H195" s="32"/>
+      <c r="I195" s="32"/>
+      <c r="J195" s="33"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="11">
@@ -13207,11 +13207,11 @@
       <c r="D196" s="5">
         <v>7.2083333333333321</v>
       </c>
-      <c r="F196" s="34"/>
-      <c r="G196" s="34"/>
-      <c r="H196" s="34"/>
-      <c r="I196" s="34"/>
-      <c r="J196" s="35"/>
+      <c r="F196" s="32"/>
+      <c r="G196" s="32"/>
+      <c r="H196" s="32"/>
+      <c r="I196" s="32"/>
+      <c r="J196" s="33"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="11">
@@ -13226,11 +13226,11 @@
       <c r="D197" s="5">
         <v>8.4708333333333332</v>
       </c>
-      <c r="F197" s="34"/>
-      <c r="G197" s="34"/>
-      <c r="H197" s="34"/>
-      <c r="I197" s="34"/>
-      <c r="J197" s="35"/>
+      <c r="F197" s="32"/>
+      <c r="G197" s="32"/>
+      <c r="H197" s="32"/>
+      <c r="I197" s="32"/>
+      <c r="J197" s="33"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="11">
@@ -13245,11 +13245,11 @@
       <c r="D198" s="5">
         <v>9.7916666666666679</v>
       </c>
-      <c r="F198" s="34"/>
-      <c r="G198" s="34"/>
-      <c r="H198" s="34"/>
-      <c r="I198" s="34"/>
-      <c r="J198" s="35"/>
+      <c r="F198" s="32"/>
+      <c r="G198" s="32"/>
+      <c r="H198" s="32"/>
+      <c r="I198" s="32"/>
+      <c r="J198" s="33"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="11">
@@ -13264,11 +13264,11 @@
       <c r="D199" s="5">
         <v>9.6583333333333332</v>
       </c>
-      <c r="F199" s="34"/>
-      <c r="G199" s="34"/>
-      <c r="H199" s="34"/>
-      <c r="I199" s="34"/>
-      <c r="J199" s="35"/>
+      <c r="F199" s="32"/>
+      <c r="G199" s="32"/>
+      <c r="H199" s="32"/>
+      <c r="I199" s="32"/>
+      <c r="J199" s="33"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="11">
@@ -13283,11 +13283,11 @@
       <c r="D200" s="5">
         <v>5.258333333333332</v>
       </c>
-      <c r="F200" s="34"/>
-      <c r="G200" s="34"/>
-      <c r="H200" s="34"/>
-      <c r="I200" s="34"/>
-      <c r="J200" s="35"/>
+      <c r="F200" s="32"/>
+      <c r="G200" s="32"/>
+      <c r="H200" s="32"/>
+      <c r="I200" s="32"/>
+      <c r="J200" s="33"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="11">
@@ -13302,11 +13302,11 @@
       <c r="D201" s="5">
         <v>6.6291666666666664</v>
       </c>
-      <c r="F201" s="34"/>
-      <c r="G201" s="34"/>
-      <c r="H201" s="34"/>
-      <c r="I201" s="34"/>
-      <c r="J201" s="35"/>
+      <c r="F201" s="32"/>
+      <c r="G201" s="32"/>
+      <c r="H201" s="32"/>
+      <c r="I201" s="32"/>
+      <c r="J201" s="33"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="11">
@@ -13321,11 +13321,11 @@
       <c r="D202" s="5">
         <v>8.3916666666666675</v>
       </c>
-      <c r="F202" s="34"/>
-      <c r="G202" s="34"/>
-      <c r="H202" s="34"/>
-      <c r="I202" s="34"/>
-      <c r="J202" s="35"/>
+      <c r="F202" s="32"/>
+      <c r="G202" s="32"/>
+      <c r="H202" s="32"/>
+      <c r="I202" s="32"/>
+      <c r="J202" s="33"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="11">
@@ -13340,11 +13340,11 @@
       <c r="D203" s="5">
         <v>9.1041666666666661</v>
       </c>
-      <c r="F203" s="34"/>
-      <c r="G203" s="34"/>
-      <c r="H203" s="34"/>
-      <c r="I203" s="34"/>
-      <c r="J203" s="35"/>
+      <c r="F203" s="32"/>
+      <c r="G203" s="32"/>
+      <c r="H203" s="32"/>
+      <c r="I203" s="32"/>
+      <c r="J203" s="33"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="11">
@@ -13359,11 +13359,11 @@
       <c r="D204" s="5">
         <v>7.4541666666666684</v>
       </c>
-      <c r="F204" s="34"/>
-      <c r="G204" s="34"/>
-      <c r="H204" s="34"/>
-      <c r="I204" s="34"/>
-      <c r="J204" s="35"/>
+      <c r="F204" s="32"/>
+      <c r="G204" s="32"/>
+      <c r="H204" s="32"/>
+      <c r="I204" s="32"/>
+      <c r="J204" s="33"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="11">
@@ -13378,11 +13378,11 @@
       <c r="D205" s="5">
         <v>8.0374999999999996</v>
       </c>
-      <c r="F205" s="34"/>
-      <c r="G205" s="34"/>
-      <c r="H205" s="34"/>
-      <c r="I205" s="34"/>
-      <c r="J205" s="35"/>
+      <c r="F205" s="32"/>
+      <c r="G205" s="32"/>
+      <c r="H205" s="32"/>
+      <c r="I205" s="32"/>
+      <c r="J205" s="33"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="11">
@@ -13397,11 +13397,11 @@
       <c r="D206" s="5">
         <v>7.729166666666667</v>
       </c>
-      <c r="F206" s="34"/>
-      <c r="G206" s="34"/>
-      <c r="H206" s="34"/>
-      <c r="I206" s="34"/>
-      <c r="J206" s="35"/>
+      <c r="F206" s="32"/>
+      <c r="G206" s="32"/>
+      <c r="H206" s="32"/>
+      <c r="I206" s="32"/>
+      <c r="J206" s="33"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="11">
@@ -13416,11 +13416,11 @@
       <c r="D207" s="5">
         <v>8.9083333333333332</v>
       </c>
-      <c r="F207" s="34"/>
-      <c r="G207" s="34"/>
-      <c r="H207" s="34"/>
-      <c r="I207" s="34"/>
-      <c r="J207" s="35"/>
+      <c r="F207" s="32"/>
+      <c r="G207" s="32"/>
+      <c r="H207" s="32"/>
+      <c r="I207" s="32"/>
+      <c r="J207" s="33"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="11">
@@ -13435,11 +13435,11 @@
       <c r="D208" s="5">
         <v>8.0499999999999989</v>
       </c>
-      <c r="F208" s="34"/>
-      <c r="G208" s="34"/>
-      <c r="H208" s="34"/>
-      <c r="I208" s="34"/>
-      <c r="J208" s="35"/>
+      <c r="F208" s="32"/>
+      <c r="G208" s="32"/>
+      <c r="H208" s="32"/>
+      <c r="I208" s="32"/>
+      <c r="J208" s="33"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="11">
@@ -13454,11 +13454,11 @@
       <c r="D209" s="5">
         <v>10.012500000000001</v>
       </c>
-      <c r="F209" s="34"/>
-      <c r="G209" s="34"/>
-      <c r="H209" s="34"/>
-      <c r="I209" s="34"/>
-      <c r="J209" s="35"/>
+      <c r="F209" s="32"/>
+      <c r="G209" s="32"/>
+      <c r="H209" s="32"/>
+      <c r="I209" s="32"/>
+      <c r="J209" s="33"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="11">
@@ -13473,11 +13473,11 @@
       <c r="D210" s="5">
         <v>12.25</v>
       </c>
-      <c r="F210" s="34"/>
-      <c r="G210" s="34"/>
-      <c r="H210" s="34"/>
-      <c r="I210" s="34"/>
-      <c r="J210" s="35"/>
+      <c r="F210" s="32"/>
+      <c r="G210" s="32"/>
+      <c r="H210" s="32"/>
+      <c r="I210" s="32"/>
+      <c r="J210" s="33"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="11">
@@ -13492,11 +13492,11 @@
       <c r="D211" s="5">
         <v>14.866666666666669</v>
       </c>
-      <c r="F211" s="34"/>
-      <c r="G211" s="34"/>
-      <c r="H211" s="34"/>
-      <c r="I211" s="34"/>
-      <c r="J211" s="35"/>
+      <c r="F211" s="32"/>
+      <c r="G211" s="32"/>
+      <c r="H211" s="32"/>
+      <c r="I211" s="32"/>
+      <c r="J211" s="33"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="11">
@@ -13511,11 +13511,11 @@
       <c r="D212" s="5">
         <v>21.062499999999996</v>
       </c>
-      <c r="F212" s="34"/>
-      <c r="G212" s="34"/>
-      <c r="H212" s="34"/>
-      <c r="I212" s="34"/>
-      <c r="J212" s="35"/>
+      <c r="F212" s="32"/>
+      <c r="G212" s="32"/>
+      <c r="H212" s="32"/>
+      <c r="I212" s="32"/>
+      <c r="J212" s="33"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="11">
@@ -13530,11 +13530,11 @@
       <c r="D213" s="5">
         <v>17.933333333333334</v>
       </c>
-      <c r="F213" s="34"/>
-      <c r="G213" s="34"/>
-      <c r="H213" s="34"/>
-      <c r="I213" s="34"/>
-      <c r="J213" s="35"/>
+      <c r="F213" s="32"/>
+      <c r="G213" s="32"/>
+      <c r="H213" s="32"/>
+      <c r="I213" s="32"/>
+      <c r="J213" s="33"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="11">
@@ -13549,11 +13549,11 @@
       <c r="D214" s="5">
         <v>16.824999999999999</v>
       </c>
-      <c r="F214" s="34"/>
-      <c r="G214" s="34"/>
-      <c r="H214" s="34"/>
-      <c r="I214" s="34"/>
-      <c r="J214" s="35"/>
+      <c r="F214" s="32"/>
+      <c r="G214" s="32"/>
+      <c r="H214" s="32"/>
+      <c r="I214" s="32"/>
+      <c r="J214" s="33"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="11">
@@ -13568,11 +13568,11 @@
       <c r="D215" s="5">
         <v>15.579166666666666</v>
       </c>
-      <c r="F215" s="34"/>
-      <c r="G215" s="34"/>
-      <c r="H215" s="34"/>
-      <c r="I215" s="34"/>
-      <c r="J215" s="35"/>
+      <c r="F215" s="32"/>
+      <c r="G215" s="32"/>
+      <c r="H215" s="32"/>
+      <c r="I215" s="32"/>
+      <c r="J215" s="33"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="11">
@@ -13587,11 +13587,11 @@
       <c r="D216" s="5">
         <v>14.183333333333339</v>
       </c>
-      <c r="F216" s="34"/>
-      <c r="G216" s="34"/>
-      <c r="H216" s="34"/>
-      <c r="I216" s="34"/>
-      <c r="J216" s="35"/>
+      <c r="F216" s="32"/>
+      <c r="G216" s="32"/>
+      <c r="H216" s="32"/>
+      <c r="I216" s="32"/>
+      <c r="J216" s="33"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="11">
@@ -13606,11 +13606,11 @@
       <c r="D217" s="5">
         <v>13.654166666666669</v>
       </c>
-      <c r="F217" s="34"/>
-      <c r="G217" s="34"/>
-      <c r="H217" s="34"/>
-      <c r="I217" s="34"/>
-      <c r="J217" s="35"/>
+      <c r="F217" s="32"/>
+      <c r="G217" s="32"/>
+      <c r="H217" s="32"/>
+      <c r="I217" s="32"/>
+      <c r="J217" s="33"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="11">
@@ -13625,11 +13625,11 @@
       <c r="D218" s="5">
         <v>15.258333333333333</v>
       </c>
-      <c r="F218" s="34"/>
-      <c r="G218" s="34"/>
-      <c r="H218" s="34"/>
-      <c r="I218" s="34"/>
-      <c r="J218" s="35"/>
+      <c r="F218" s="32"/>
+      <c r="G218" s="32"/>
+      <c r="H218" s="32"/>
+      <c r="I218" s="32"/>
+      <c r="J218" s="33"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="11">
@@ -13644,11 +13644,11 @@
       <c r="D219" s="5">
         <v>13.016666666666666</v>
       </c>
-      <c r="F219" s="34"/>
-      <c r="G219" s="34"/>
-      <c r="H219" s="34"/>
-      <c r="I219" s="34"/>
-      <c r="J219" s="35"/>
+      <c r="F219" s="32"/>
+      <c r="G219" s="32"/>
+      <c r="H219" s="32"/>
+      <c r="I219" s="32"/>
+      <c r="J219" s="33"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="11">
@@ -13663,11 +13663,11 @@
       <c r="D220" s="5">
         <v>12.024999999999999</v>
       </c>
-      <c r="F220" s="34"/>
-      <c r="G220" s="34"/>
-      <c r="H220" s="34"/>
-      <c r="I220" s="34"/>
-      <c r="J220" s="35"/>
+      <c r="F220" s="32"/>
+      <c r="G220" s="32"/>
+      <c r="H220" s="32"/>
+      <c r="I220" s="32"/>
+      <c r="J220" s="33"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="11">
@@ -13682,11 +13682,11 @@
       <c r="D221" s="5">
         <v>12.166666666666666</v>
       </c>
-      <c r="F221" s="34"/>
-      <c r="G221" s="34"/>
-      <c r="H221" s="34"/>
-      <c r="I221" s="34"/>
-      <c r="J221" s="35"/>
+      <c r="F221" s="32"/>
+      <c r="G221" s="32"/>
+      <c r="H221" s="32"/>
+      <c r="I221" s="32"/>
+      <c r="J221" s="33"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="11">
@@ -13701,11 +13701,11 @@
       <c r="D222" s="5">
         <v>13.633333333333335</v>
       </c>
-      <c r="F222" s="34"/>
-      <c r="G222" s="34"/>
-      <c r="H222" s="34"/>
-      <c r="I222" s="34"/>
-      <c r="J222" s="35"/>
+      <c r="F222" s="32"/>
+      <c r="G222" s="32"/>
+      <c r="H222" s="32"/>
+      <c r="I222" s="32"/>
+      <c r="J222" s="33"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="11">
@@ -13720,11 +13720,11 @@
       <c r="D223" s="5">
         <v>16.224999999999998</v>
       </c>
-      <c r="F223" s="34"/>
-      <c r="G223" s="34"/>
-      <c r="H223" s="34"/>
-      <c r="I223" s="34"/>
-      <c r="J223" s="35"/>
+      <c r="F223" s="32"/>
+      <c r="G223" s="32"/>
+      <c r="H223" s="32"/>
+      <c r="I223" s="32"/>
+      <c r="J223" s="33"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="11">
@@ -13739,11 +13739,11 @@
       <c r="D224" s="5">
         <v>21.262499999999999</v>
       </c>
-      <c r="F224" s="34"/>
-      <c r="G224" s="34"/>
-      <c r="H224" s="34"/>
-      <c r="I224" s="34"/>
-      <c r="J224" s="35"/>
+      <c r="F224" s="32"/>
+      <c r="G224" s="32"/>
+      <c r="H224" s="32"/>
+      <c r="I224" s="32"/>
+      <c r="J224" s="33"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="11">
@@ -13758,11 +13758,11 @@
       <c r="D225" s="5">
         <v>22.087499999999995</v>
       </c>
-      <c r="F225" s="34"/>
-      <c r="G225" s="34"/>
-      <c r="H225" s="34"/>
-      <c r="I225" s="34"/>
-      <c r="J225" s="35"/>
+      <c r="F225" s="32"/>
+      <c r="G225" s="32"/>
+      <c r="H225" s="32"/>
+      <c r="I225" s="32"/>
+      <c r="J225" s="33"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="11">
@@ -13777,11 +13777,11 @@
       <c r="D226" s="5">
         <v>12.845833333333337</v>
       </c>
-      <c r="F226" s="34"/>
-      <c r="G226" s="34"/>
-      <c r="H226" s="34"/>
-      <c r="I226" s="34"/>
-      <c r="J226" s="35"/>
+      <c r="F226" s="32"/>
+      <c r="G226" s="32"/>
+      <c r="H226" s="32"/>
+      <c r="I226" s="32"/>
+      <c r="J226" s="33"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="11">
@@ -13796,11 +13796,11 @@
       <c r="D227" s="5">
         <v>10.6</v>
       </c>
-      <c r="F227" s="34"/>
-      <c r="G227" s="34"/>
-      <c r="H227" s="34"/>
-      <c r="I227" s="34"/>
-      <c r="J227" s="35"/>
+      <c r="F227" s="32"/>
+      <c r="G227" s="32"/>
+      <c r="H227" s="32"/>
+      <c r="I227" s="32"/>
+      <c r="J227" s="33"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="11">
@@ -13815,11 +13815,11 @@
       <c r="D228" s="5">
         <v>12.012500000000001</v>
       </c>
-      <c r="F228" s="34"/>
-      <c r="G228" s="34"/>
-      <c r="H228" s="34"/>
-      <c r="I228" s="34"/>
-      <c r="J228" s="35"/>
+      <c r="F228" s="32"/>
+      <c r="G228" s="32"/>
+      <c r="H228" s="32"/>
+      <c r="I228" s="32"/>
+      <c r="J228" s="33"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="11">
@@ -13834,11 +13834,11 @@
       <c r="D229" s="5">
         <v>8.8166666666666682</v>
       </c>
-      <c r="F229" s="34"/>
-      <c r="G229" s="34"/>
-      <c r="H229" s="34"/>
-      <c r="I229" s="34"/>
-      <c r="J229" s="35"/>
+      <c r="F229" s="32"/>
+      <c r="G229" s="32"/>
+      <c r="H229" s="32"/>
+      <c r="I229" s="32"/>
+      <c r="J229" s="33"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="11">
@@ -13853,11 +13853,11 @@
       <c r="D230" s="5">
         <v>8.3208333333333346</v>
       </c>
-      <c r="F230" s="34"/>
-      <c r="G230" s="34"/>
-      <c r="H230" s="34"/>
-      <c r="I230" s="34"/>
-      <c r="J230" s="35"/>
+      <c r="F230" s="32"/>
+      <c r="G230" s="32"/>
+      <c r="H230" s="32"/>
+      <c r="I230" s="32"/>
+      <c r="J230" s="33"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="11">
@@ -13872,11 +13872,11 @@
       <c r="D231" s="5">
         <v>10.775</v>
       </c>
-      <c r="F231" s="34"/>
-      <c r="G231" s="34"/>
-      <c r="H231" s="34"/>
-      <c r="I231" s="34"/>
-      <c r="J231" s="35"/>
+      <c r="F231" s="32"/>
+      <c r="G231" s="32"/>
+      <c r="H231" s="32"/>
+      <c r="I231" s="32"/>
+      <c r="J231" s="33"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="11">
@@ -13891,11 +13891,11 @@
       <c r="D232" s="5">
         <v>14.712499999999999</v>
       </c>
-      <c r="F232" s="34"/>
-      <c r="G232" s="34"/>
-      <c r="H232" s="34"/>
-      <c r="I232" s="34"/>
-      <c r="J232" s="35"/>
+      <c r="F232" s="32"/>
+      <c r="G232" s="32"/>
+      <c r="H232" s="32"/>
+      <c r="I232" s="32"/>
+      <c r="J232" s="33"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="11">
@@ -13910,11 +13910,11 @@
       <c r="D233" s="5">
         <v>17.212499999999999</v>
       </c>
-      <c r="F233" s="34"/>
-      <c r="G233" s="34"/>
-      <c r="H233" s="34"/>
-      <c r="I233" s="34"/>
-      <c r="J233" s="35"/>
+      <c r="F233" s="32"/>
+      <c r="G233" s="32"/>
+      <c r="H233" s="32"/>
+      <c r="I233" s="32"/>
+      <c r="J233" s="33"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="11">
@@ -13929,11 +13929,11 @@
       <c r="D234" s="5">
         <v>19.429166666666671</v>
       </c>
-      <c r="F234" s="34"/>
-      <c r="G234" s="34"/>
-      <c r="H234" s="34"/>
-      <c r="I234" s="34"/>
-      <c r="J234" s="34"/>
+      <c r="F234" s="32"/>
+      <c r="G234" s="32"/>
+      <c r="H234" s="32"/>
+      <c r="I234" s="32"/>
+      <c r="J234" s="32"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="11">
@@ -13948,11 +13948,11 @@
       <c r="D235" s="5">
         <v>16.804166666666664</v>
       </c>
-      <c r="F235" s="34"/>
-      <c r="G235" s="34"/>
-      <c r="H235" s="34"/>
-      <c r="I235" s="34"/>
-      <c r="J235" s="34"/>
+      <c r="F235" s="32"/>
+      <c r="G235" s="32"/>
+      <c r="H235" s="32"/>
+      <c r="I235" s="32"/>
+      <c r="J235" s="32"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="11">
@@ -13967,11 +13967,11 @@
       <c r="D236" s="5">
         <v>16.795833333333331</v>
       </c>
-      <c r="F236" s="34"/>
-      <c r="G236" s="34"/>
-      <c r="H236" s="34"/>
-      <c r="I236" s="34"/>
-      <c r="J236" s="34"/>
+      <c r="F236" s="32"/>
+      <c r="G236" s="32"/>
+      <c r="H236" s="32"/>
+      <c r="I236" s="32"/>
+      <c r="J236" s="32"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="11">
@@ -13986,11 +13986,11 @@
       <c r="D237" s="5">
         <v>17.329166666666669</v>
       </c>
-      <c r="F237" s="34"/>
-      <c r="G237" s="34"/>
-      <c r="H237" s="34"/>
-      <c r="I237" s="34"/>
-      <c r="J237" s="34"/>
+      <c r="F237" s="32"/>
+      <c r="G237" s="32"/>
+      <c r="H237" s="32"/>
+      <c r="I237" s="32"/>
+      <c r="J237" s="32"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="11">
@@ -14005,11 +14005,11 @@
       <c r="D238" s="5">
         <v>20.924999999999997</v>
       </c>
-      <c r="F238" s="34"/>
-      <c r="G238" s="34"/>
-      <c r="H238" s="34"/>
-      <c r="I238" s="34"/>
-      <c r="J238" s="34"/>
+      <c r="F238" s="32"/>
+      <c r="G238" s="32"/>
+      <c r="H238" s="32"/>
+      <c r="I238" s="32"/>
+      <c r="J238" s="32"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="11">
@@ -14024,11 +14024,11 @@
       <c r="D239" s="5">
         <v>19.350000000000001</v>
       </c>
-      <c r="F239" s="34"/>
-      <c r="G239" s="34"/>
-      <c r="H239" s="34"/>
-      <c r="I239" s="34"/>
-      <c r="J239" s="34"/>
+      <c r="F239" s="32"/>
+      <c r="G239" s="32"/>
+      <c r="H239" s="32"/>
+      <c r="I239" s="32"/>
+      <c r="J239" s="32"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="11">
@@ -14043,11 +14043,11 @@
       <c r="D240" s="5">
         <v>18.737500000000008</v>
       </c>
-      <c r="F240" s="34"/>
-      <c r="G240" s="34"/>
-      <c r="H240" s="34"/>
-      <c r="I240" s="34"/>
-      <c r="J240" s="34"/>
+      <c r="F240" s="32"/>
+      <c r="G240" s="32"/>
+      <c r="H240" s="32"/>
+      <c r="I240" s="32"/>
+      <c r="J240" s="32"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="11">
@@ -14062,11 +14062,11 @@
       <c r="D241" s="5">
         <v>17.829166666666666</v>
       </c>
-      <c r="F241" s="34"/>
-      <c r="G241" s="34"/>
-      <c r="H241" s="34"/>
-      <c r="I241" s="34"/>
-      <c r="J241" s="34"/>
+      <c r="F241" s="32"/>
+      <c r="G241" s="32"/>
+      <c r="H241" s="32"/>
+      <c r="I241" s="32"/>
+      <c r="J241" s="32"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="11">
@@ -14081,11 +14081,11 @@
       <c r="D242" s="5">
         <v>19.058333333333337</v>
       </c>
-      <c r="F242" s="34"/>
-      <c r="G242" s="34"/>
-      <c r="H242" s="34"/>
-      <c r="I242" s="34"/>
-      <c r="J242" s="34"/>
+      <c r="F242" s="32"/>
+      <c r="G242" s="32"/>
+      <c r="H242" s="32"/>
+      <c r="I242" s="32"/>
+      <c r="J242" s="32"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="11">
@@ -14100,11 +14100,11 @@
       <c r="D243" s="5">
         <v>19.925000000000001</v>
       </c>
-      <c r="F243" s="34"/>
-      <c r="G243" s="34"/>
-      <c r="H243" s="34"/>
-      <c r="I243" s="34"/>
-      <c r="J243" s="34"/>
+      <c r="F243" s="32"/>
+      <c r="G243" s="32"/>
+      <c r="H243" s="32"/>
+      <c r="I243" s="32"/>
+      <c r="J243" s="32"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="11">
@@ -14119,11 +14119,11 @@
       <c r="D244" s="5">
         <v>20.116666666666667</v>
       </c>
-      <c r="F244" s="34"/>
-      <c r="G244" s="34"/>
-      <c r="H244" s="34"/>
-      <c r="I244" s="34"/>
-      <c r="J244" s="34"/>
+      <c r="F244" s="32"/>
+      <c r="G244" s="32"/>
+      <c r="H244" s="32"/>
+      <c r="I244" s="32"/>
+      <c r="J244" s="32"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="11">
@@ -14138,11 +14138,11 @@
       <c r="D245" s="5">
         <v>18.979166666666671</v>
       </c>
-      <c r="F245" s="34"/>
-      <c r="G245" s="34"/>
-      <c r="H245" s="34"/>
-      <c r="I245" s="34"/>
-      <c r="J245" s="34"/>
+      <c r="F245" s="32"/>
+      <c r="G245" s="32"/>
+      <c r="H245" s="32"/>
+      <c r="I245" s="32"/>
+      <c r="J245" s="32"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="11">
@@ -14157,11 +14157,11 @@
       <c r="D246" s="5">
         <v>17.087500000000002</v>
       </c>
-      <c r="F246" s="34"/>
-      <c r="G246" s="34"/>
-      <c r="H246" s="34"/>
-      <c r="I246" s="34"/>
-      <c r="J246" s="34"/>
+      <c r="F246" s="32"/>
+      <c r="G246" s="32"/>
+      <c r="H246" s="32"/>
+      <c r="I246" s="32"/>
+      <c r="J246" s="32"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="11">
@@ -14176,11 +14176,11 @@
       <c r="D247" s="5">
         <v>18.591666666666665</v>
       </c>
-      <c r="F247" s="34"/>
-      <c r="G247" s="34"/>
-      <c r="H247" s="34"/>
-      <c r="I247" s="34"/>
-      <c r="J247" s="34"/>
+      <c r="F247" s="32"/>
+      <c r="G247" s="32"/>
+      <c r="H247" s="32"/>
+      <c r="I247" s="32"/>
+      <c r="J247" s="32"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="11">
@@ -14195,11 +14195,11 @@
       <c r="D248" s="5">
         <v>15.945833333333335</v>
       </c>
-      <c r="F248" s="34"/>
-      <c r="G248" s="34"/>
-      <c r="H248" s="34"/>
-      <c r="I248" s="34"/>
-      <c r="J248" s="34"/>
+      <c r="F248" s="32"/>
+      <c r="G248" s="32"/>
+      <c r="H248" s="32"/>
+      <c r="I248" s="32"/>
+      <c r="J248" s="32"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="11">
@@ -14214,11 +14214,11 @@
       <c r="D249" s="5">
         <v>14.254166666666665</v>
       </c>
-      <c r="F249" s="34"/>
-      <c r="G249" s="34"/>
-      <c r="H249" s="34"/>
-      <c r="I249" s="34"/>
-      <c r="J249" s="34"/>
+      <c r="F249" s="32"/>
+      <c r="G249" s="32"/>
+      <c r="H249" s="32"/>
+      <c r="I249" s="32"/>
+      <c r="J249" s="32"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="11">
@@ -14233,11 +14233,11 @@
       <c r="D250" s="5">
         <v>11.850000000000001</v>
       </c>
-      <c r="F250" s="34"/>
-      <c r="G250" s="34"/>
-      <c r="H250" s="34"/>
-      <c r="I250" s="34"/>
-      <c r="J250" s="34"/>
+      <c r="F250" s="32"/>
+      <c r="G250" s="32"/>
+      <c r="H250" s="32"/>
+      <c r="I250" s="32"/>
+      <c r="J250" s="32"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="11">
@@ -14252,11 +14252,11 @@
       <c r="D251" s="5">
         <v>14.166666666666666</v>
       </c>
-      <c r="F251" s="34"/>
-      <c r="G251" s="34"/>
-      <c r="H251" s="34"/>
-      <c r="I251" s="34"/>
-      <c r="J251" s="34"/>
+      <c r="F251" s="32"/>
+      <c r="G251" s="32"/>
+      <c r="H251" s="32"/>
+      <c r="I251" s="32"/>
+      <c r="J251" s="32"/>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="11">
@@ -14271,11 +14271,11 @@
       <c r="D252" s="5">
         <v>17.954166666666669</v>
       </c>
-      <c r="F252" s="34"/>
-      <c r="G252" s="34"/>
-      <c r="H252" s="34"/>
-      <c r="I252" s="34"/>
-      <c r="J252" s="34"/>
+      <c r="F252" s="32"/>
+      <c r="G252" s="32"/>
+      <c r="H252" s="32"/>
+      <c r="I252" s="32"/>
+      <c r="J252" s="32"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="11">
@@ -14290,11 +14290,11 @@
       <c r="D253" s="5">
         <v>17.149999999999999</v>
       </c>
-      <c r="F253" s="34"/>
-      <c r="G253" s="34"/>
-      <c r="H253" s="34"/>
-      <c r="I253" s="34"/>
-      <c r="J253" s="34"/>
+      <c r="F253" s="32"/>
+      <c r="G253" s="32"/>
+      <c r="H253" s="32"/>
+      <c r="I253" s="32"/>
+      <c r="J253" s="32"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="11">
@@ -14309,11 +14309,11 @@
       <c r="D254" s="5">
         <v>15.579166666666671</v>
       </c>
-      <c r="F254" s="34"/>
-      <c r="G254" s="34"/>
-      <c r="H254" s="34"/>
-      <c r="I254" s="34"/>
-      <c r="J254" s="34"/>
+      <c r="F254" s="32"/>
+      <c r="G254" s="32"/>
+      <c r="H254" s="32"/>
+      <c r="I254" s="32"/>
+      <c r="J254" s="32"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="11">
@@ -14328,11 +14328,11 @@
       <c r="D255" s="5">
         <v>15.625</v>
       </c>
-      <c r="F255" s="34"/>
-      <c r="G255" s="34"/>
-      <c r="H255" s="34"/>
-      <c r="I255" s="34"/>
-      <c r="J255" s="34"/>
+      <c r="F255" s="32"/>
+      <c r="G255" s="32"/>
+      <c r="H255" s="32"/>
+      <c r="I255" s="32"/>
+      <c r="J255" s="32"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="11">
@@ -14347,11 +14347,11 @@
       <c r="D256" s="5">
         <v>15.012500000000001</v>
       </c>
-      <c r="F256" s="34"/>
-      <c r="G256" s="34"/>
-      <c r="H256" s="34"/>
-      <c r="I256" s="34"/>
-      <c r="J256" s="34"/>
+      <c r="F256" s="32"/>
+      <c r="G256" s="32"/>
+      <c r="H256" s="32"/>
+      <c r="I256" s="32"/>
+      <c r="J256" s="32"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="11">
@@ -14366,11 +14366,11 @@
       <c r="D257" s="5">
         <v>13.275</v>
       </c>
-      <c r="F257" s="34"/>
-      <c r="G257" s="34"/>
-      <c r="H257" s="34"/>
-      <c r="I257" s="34"/>
-      <c r="J257" s="34"/>
+      <c r="F257" s="32"/>
+      <c r="G257" s="32"/>
+      <c r="H257" s="32"/>
+      <c r="I257" s="32"/>
+      <c r="J257" s="32"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="11">
@@ -14385,11 +14385,11 @@
       <c r="D258" s="5">
         <v>13.729166666666664</v>
       </c>
-      <c r="F258" s="34"/>
-      <c r="G258" s="34"/>
-      <c r="H258" s="34"/>
-      <c r="I258" s="34"/>
-      <c r="J258" s="34"/>
+      <c r="F258" s="32"/>
+      <c r="G258" s="32"/>
+      <c r="H258" s="32"/>
+      <c r="I258" s="32"/>
+      <c r="J258" s="32"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="11">
@@ -14404,11 +14404,11 @@
       <c r="D259" s="5">
         <v>15.475</v>
       </c>
-      <c r="F259" s="34"/>
-      <c r="G259" s="34"/>
-      <c r="H259" s="34"/>
-      <c r="I259" s="34"/>
-      <c r="J259" s="34"/>
+      <c r="F259" s="32"/>
+      <c r="G259" s="32"/>
+      <c r="H259" s="32"/>
+      <c r="I259" s="32"/>
+      <c r="J259" s="32"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="11">
@@ -14423,11 +14423,11 @@
       <c r="D260" s="5">
         <v>17.962499999999995</v>
       </c>
-      <c r="F260" s="34"/>
-      <c r="G260" s="34"/>
-      <c r="H260" s="34"/>
-      <c r="I260" s="34"/>
-      <c r="J260" s="34"/>
+      <c r="F260" s="32"/>
+      <c r="G260" s="32"/>
+      <c r="H260" s="32"/>
+      <c r="I260" s="32"/>
+      <c r="J260" s="32"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="11">
@@ -14442,11 +14442,11 @@
       <c r="D261" s="5">
         <v>18.899999999999999</v>
       </c>
-      <c r="F261" s="34"/>
-      <c r="G261" s="34"/>
-      <c r="H261" s="34"/>
-      <c r="I261" s="34"/>
-      <c r="J261" s="34"/>
+      <c r="F261" s="32"/>
+      <c r="G261" s="32"/>
+      <c r="H261" s="32"/>
+      <c r="I261" s="32"/>
+      <c r="J261" s="32"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="11">
@@ -14461,11 +14461,11 @@
       <c r="D262" s="5">
         <v>17.058333333333334</v>
       </c>
-      <c r="F262" s="34"/>
-      <c r="G262" s="34"/>
-      <c r="H262" s="34"/>
-      <c r="I262" s="34"/>
-      <c r="J262" s="34"/>
+      <c r="F262" s="32"/>
+      <c r="G262" s="32"/>
+      <c r="H262" s="32"/>
+      <c r="I262" s="32"/>
+      <c r="J262" s="32"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="11">
@@ -14480,11 +14480,11 @@
       <c r="D263" s="5">
         <v>19.787500000000001</v>
       </c>
-      <c r="F263" s="34"/>
-      <c r="G263" s="34"/>
-      <c r="H263" s="34"/>
-      <c r="I263" s="34"/>
-      <c r="J263" s="34"/>
+      <c r="F263" s="32"/>
+      <c r="G263" s="32"/>
+      <c r="H263" s="32"/>
+      <c r="I263" s="32"/>
+      <c r="J263" s="32"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="11">
@@ -14499,11 +14499,11 @@
       <c r="D264" s="5">
         <v>19.099999999999998</v>
       </c>
-      <c r="F264" s="34"/>
-      <c r="G264" s="34"/>
-      <c r="H264" s="34"/>
-      <c r="I264" s="34"/>
-      <c r="J264" s="34"/>
+      <c r="F264" s="32"/>
+      <c r="G264" s="32"/>
+      <c r="H264" s="32"/>
+      <c r="I264" s="32"/>
+      <c r="J264" s="32"/>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="11">
@@ -14518,11 +14518,11 @@
       <c r="D265" s="5">
         <v>19.283333333333335</v>
       </c>
-      <c r="F265" s="34"/>
-      <c r="G265" s="34"/>
-      <c r="H265" s="34"/>
-      <c r="I265" s="34"/>
-      <c r="J265" s="34"/>
+      <c r="F265" s="32"/>
+      <c r="G265" s="32"/>
+      <c r="H265" s="32"/>
+      <c r="I265" s="32"/>
+      <c r="J265" s="32"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="11">
@@ -14537,11 +14537,11 @@
       <c r="D266" s="5">
         <v>19.479166666666661</v>
       </c>
-      <c r="F266" s="34"/>
-      <c r="G266" s="34"/>
-      <c r="H266" s="34"/>
-      <c r="I266" s="34"/>
-      <c r="J266" s="34"/>
+      <c r="F266" s="32"/>
+      <c r="G266" s="32"/>
+      <c r="H266" s="32"/>
+      <c r="I266" s="32"/>
+      <c r="J266" s="32"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="11">
@@ -14556,11 +14556,11 @@
       <c r="D267" s="5">
         <v>17.304166666666667</v>
       </c>
-      <c r="F267" s="34"/>
-      <c r="G267" s="34"/>
-      <c r="H267" s="34"/>
-      <c r="I267" s="34"/>
-      <c r="J267" s="34"/>
+      <c r="F267" s="32"/>
+      <c r="G267" s="32"/>
+      <c r="H267" s="32"/>
+      <c r="I267" s="32"/>
+      <c r="J267" s="32"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="11">
@@ -14575,11 +14575,11 @@
       <c r="D268" s="5">
         <v>17.858333333333338</v>
       </c>
-      <c r="F268" s="34"/>
-      <c r="G268" s="34"/>
-      <c r="H268" s="34"/>
-      <c r="I268" s="34"/>
-      <c r="J268" s="34"/>
+      <c r="F268" s="32"/>
+      <c r="G268" s="32"/>
+      <c r="H268" s="32"/>
+      <c r="I268" s="32"/>
+      <c r="J268" s="32"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="11">
@@ -14594,11 +14594,11 @@
       <c r="D269" s="5">
         <v>16.783333333333335</v>
       </c>
-      <c r="F269" s="34"/>
-      <c r="G269" s="34"/>
-      <c r="H269" s="34"/>
-      <c r="I269" s="34"/>
-      <c r="J269" s="34"/>
+      <c r="F269" s="32"/>
+      <c r="G269" s="32"/>
+      <c r="H269" s="32"/>
+      <c r="I269" s="32"/>
+      <c r="J269" s="32"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="11">
@@ -14613,11 +14613,11 @@
       <c r="D270" s="5">
         <v>15.583333333333334</v>
       </c>
-      <c r="F270" s="34"/>
-      <c r="G270" s="34"/>
-      <c r="H270" s="34"/>
-      <c r="I270" s="34"/>
-      <c r="J270" s="34"/>
+      <c r="F270" s="32"/>
+      <c r="G270" s="32"/>
+      <c r="H270" s="32"/>
+      <c r="I270" s="32"/>
+      <c r="J270" s="32"/>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="11">
@@ -14632,11 +14632,11 @@
       <c r="D271" s="5">
         <v>18.091666666666669</v>
       </c>
-      <c r="F271" s="34"/>
-      <c r="G271" s="34"/>
-      <c r="H271" s="34"/>
-      <c r="I271" s="34"/>
-      <c r="J271" s="34"/>
+      <c r="F271" s="32"/>
+      <c r="G271" s="32"/>
+      <c r="H271" s="32"/>
+      <c r="I271" s="32"/>
+      <c r="J271" s="32"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="11">
@@ -14651,11 +14651,11 @@
       <c r="D272" s="5">
         <v>21.399999999999995</v>
       </c>
-      <c r="F272" s="34"/>
-      <c r="G272" s="34"/>
-      <c r="H272" s="34"/>
-      <c r="I272" s="34"/>
-      <c r="J272" s="34"/>
+      <c r="F272" s="32"/>
+      <c r="G272" s="32"/>
+      <c r="H272" s="32"/>
+      <c r="I272" s="32"/>
+      <c r="J272" s="32"/>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="11">
@@ -14670,11 +14670,11 @@
       <c r="D273" s="5">
         <v>22.641666666666669</v>
       </c>
-      <c r="F273" s="34"/>
-      <c r="G273" s="34"/>
-      <c r="H273" s="34"/>
-      <c r="I273" s="34"/>
-      <c r="J273" s="34"/>
+      <c r="F273" s="32"/>
+      <c r="G273" s="32"/>
+      <c r="H273" s="32"/>
+      <c r="I273" s="32"/>
+      <c r="J273" s="32"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="11">
@@ -14689,11 +14689,11 @@
       <c r="D274" s="5">
         <v>23.675000000000001</v>
       </c>
-      <c r="F274" s="34"/>
-      <c r="G274" s="34"/>
-      <c r="H274" s="34"/>
-      <c r="I274" s="34"/>
-      <c r="J274" s="34"/>
+      <c r="F274" s="32"/>
+      <c r="G274" s="32"/>
+      <c r="H274" s="32"/>
+      <c r="I274" s="32"/>
+      <c r="J274" s="32"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="11">
@@ -14708,11 +14708,11 @@
       <c r="D275" s="5">
         <v>23.083333333333332</v>
       </c>
-      <c r="F275" s="34"/>
-      <c r="G275" s="34"/>
-      <c r="H275" s="34"/>
-      <c r="I275" s="34"/>
-      <c r="J275" s="34"/>
+      <c r="F275" s="32"/>
+      <c r="G275" s="32"/>
+      <c r="H275" s="32"/>
+      <c r="I275" s="32"/>
+      <c r="J275" s="32"/>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="11">
@@ -14727,11 +14727,11 @@
       <c r="D276" s="5">
         <v>16.812500000000004</v>
       </c>
-      <c r="F276" s="34"/>
-      <c r="G276" s="34"/>
-      <c r="H276" s="34"/>
-      <c r="I276" s="34"/>
-      <c r="J276" s="34"/>
+      <c r="F276" s="32"/>
+      <c r="G276" s="32"/>
+      <c r="H276" s="32"/>
+      <c r="I276" s="32"/>
+      <c r="J276" s="32"/>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="11">
@@ -14746,11 +14746,11 @@
       <c r="D277" s="5">
         <v>16.49583333333333</v>
       </c>
-      <c r="F277" s="34"/>
-      <c r="G277" s="34"/>
-      <c r="H277" s="34"/>
-      <c r="I277" s="34"/>
-      <c r="J277" s="34"/>
+      <c r="F277" s="32"/>
+      <c r="G277" s="32"/>
+      <c r="H277" s="32"/>
+      <c r="I277" s="32"/>
+      <c r="J277" s="32"/>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="11">
@@ -14765,11 +14765,11 @@
       <c r="D278" s="5">
         <v>18.787499999999998</v>
       </c>
-      <c r="F278" s="34"/>
-      <c r="G278" s="34"/>
-      <c r="H278" s="34"/>
-      <c r="I278" s="34"/>
-      <c r="J278" s="34"/>
+      <c r="F278" s="32"/>
+      <c r="G278" s="32"/>
+      <c r="H278" s="32"/>
+      <c r="I278" s="32"/>
+      <c r="J278" s="32"/>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="11">
@@ -14784,11 +14784,11 @@
       <c r="D279" s="5">
         <v>21.329166666666666</v>
       </c>
-      <c r="F279" s="34"/>
-      <c r="G279" s="34"/>
-      <c r="H279" s="34"/>
-      <c r="I279" s="34"/>
-      <c r="J279" s="34"/>
+      <c r="F279" s="32"/>
+      <c r="G279" s="32"/>
+      <c r="H279" s="32"/>
+      <c r="I279" s="32"/>
+      <c r="J279" s="32"/>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="11">
@@ -14803,11 +14803,11 @@
       <c r="D280" s="5">
         <v>21.658333333333335</v>
       </c>
-      <c r="F280" s="34"/>
-      <c r="G280" s="34"/>
-      <c r="H280" s="34"/>
-      <c r="I280" s="34"/>
-      <c r="J280" s="34"/>
+      <c r="F280" s="32"/>
+      <c r="G280" s="32"/>
+      <c r="H280" s="32"/>
+      <c r="I280" s="32"/>
+      <c r="J280" s="32"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="11">
@@ -14822,11 +14822,11 @@
       <c r="D281" s="5">
         <v>18.820833333333329</v>
       </c>
-      <c r="F281" s="34"/>
-      <c r="G281" s="34"/>
-      <c r="H281" s="34"/>
-      <c r="I281" s="34"/>
-      <c r="J281" s="34"/>
+      <c r="F281" s="32"/>
+      <c r="G281" s="32"/>
+      <c r="H281" s="32"/>
+      <c r="I281" s="32"/>
+      <c r="J281" s="32"/>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="11">
@@ -14841,11 +14841,11 @@
       <c r="D282" s="5">
         <v>19.695833333333333</v>
       </c>
-      <c r="F282" s="34"/>
-      <c r="G282" s="34"/>
-      <c r="H282" s="34"/>
-      <c r="I282" s="34"/>
-      <c r="J282" s="34"/>
+      <c r="F282" s="32"/>
+      <c r="G282" s="32"/>
+      <c r="H282" s="32"/>
+      <c r="I282" s="32"/>
+      <c r="J282" s="32"/>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="11">
@@ -14860,11 +14860,11 @@
       <c r="D283" s="5">
         <v>19.425000000000001</v>
       </c>
-      <c r="F283" s="34"/>
-      <c r="G283" s="34"/>
-      <c r="H283" s="34"/>
-      <c r="I283" s="34"/>
-      <c r="J283" s="34"/>
+      <c r="F283" s="32"/>
+      <c r="G283" s="32"/>
+      <c r="H283" s="32"/>
+      <c r="I283" s="32"/>
+      <c r="J283" s="32"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="11">
@@ -14879,11 +14879,11 @@
       <c r="D284" s="5">
         <v>18.887500000000003</v>
       </c>
-      <c r="F284" s="34"/>
-      <c r="G284" s="34"/>
-      <c r="H284" s="34"/>
-      <c r="I284" s="34"/>
-      <c r="J284" s="34"/>
+      <c r="F284" s="32"/>
+      <c r="G284" s="32"/>
+      <c r="H284" s="32"/>
+      <c r="I284" s="32"/>
+      <c r="J284" s="32"/>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="11">
@@ -14898,11 +14898,11 @@
       <c r="D285" s="5">
         <v>18.87916666666667</v>
       </c>
-      <c r="F285" s="34"/>
-      <c r="G285" s="34"/>
-      <c r="H285" s="34"/>
-      <c r="I285" s="34"/>
-      <c r="J285" s="34"/>
+      <c r="F285" s="32"/>
+      <c r="G285" s="32"/>
+      <c r="H285" s="32"/>
+      <c r="I285" s="32"/>
+      <c r="J285" s="32"/>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="11">
@@ -14917,11 +14917,11 @@
       <c r="D286" s="5">
         <v>16.391666666666662</v>
       </c>
-      <c r="F286" s="34"/>
-      <c r="G286" s="34"/>
-      <c r="H286" s="34"/>
-      <c r="I286" s="34"/>
-      <c r="J286" s="34"/>
+      <c r="F286" s="32"/>
+      <c r="G286" s="32"/>
+      <c r="H286" s="32"/>
+      <c r="I286" s="32"/>
+      <c r="J286" s="32"/>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="11">
@@ -14936,11 +14936,11 @@
       <c r="D287" s="5">
         <v>16.258333333333336</v>
       </c>
-      <c r="F287" s="34"/>
-      <c r="G287" s="34"/>
-      <c r="H287" s="34"/>
-      <c r="I287" s="34"/>
-      <c r="J287" s="34"/>
+      <c r="F287" s="32"/>
+      <c r="G287" s="32"/>
+      <c r="H287" s="32"/>
+      <c r="I287" s="32"/>
+      <c r="J287" s="32"/>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="11">
@@ -14955,11 +14955,11 @@
       <c r="D288" s="5">
         <v>15.9625</v>
       </c>
-      <c r="F288" s="34"/>
-      <c r="G288" s="34"/>
-      <c r="H288" s="34"/>
-      <c r="I288" s="34"/>
-      <c r="J288" s="34"/>
+      <c r="F288" s="32"/>
+      <c r="G288" s="32"/>
+      <c r="H288" s="32"/>
+      <c r="I288" s="32"/>
+      <c r="J288" s="32"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="11">
@@ -14974,11 +14974,11 @@
       <c r="D289" s="5">
         <v>16.787499999999998</v>
       </c>
-      <c r="F289" s="34"/>
-      <c r="G289" s="34"/>
-      <c r="H289" s="34"/>
-      <c r="I289" s="34"/>
-      <c r="J289" s="34"/>
+      <c r="F289" s="32"/>
+      <c r="G289" s="32"/>
+      <c r="H289" s="32"/>
+      <c r="I289" s="32"/>
+      <c r="J289" s="32"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="11">
@@ -14993,11 +14993,11 @@
       <c r="D290" s="5">
         <v>14.33333333333333</v>
       </c>
-      <c r="F290" s="34"/>
-      <c r="G290" s="34"/>
-      <c r="H290" s="34"/>
-      <c r="I290" s="34"/>
-      <c r="J290" s="34"/>
+      <c r="F290" s="32"/>
+      <c r="G290" s="32"/>
+      <c r="H290" s="32"/>
+      <c r="I290" s="32"/>
+      <c r="J290" s="32"/>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="11">
@@ -15012,11 +15012,11 @@
       <c r="D291" s="5">
         <v>16.31666666666667</v>
       </c>
-      <c r="F291" s="34"/>
-      <c r="G291" s="34"/>
-      <c r="H291" s="34"/>
-      <c r="I291" s="34"/>
-      <c r="J291" s="34"/>
+      <c r="F291" s="32"/>
+      <c r="G291" s="32"/>
+      <c r="H291" s="32"/>
+      <c r="I291" s="32"/>
+      <c r="J291" s="32"/>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="11">
@@ -15031,11 +15031,11 @@
       <c r="D292" s="5">
         <v>18.37083333333333</v>
       </c>
-      <c r="F292" s="34"/>
-      <c r="G292" s="34"/>
-      <c r="H292" s="34"/>
-      <c r="I292" s="34"/>
-      <c r="J292" s="34"/>
+      <c r="F292" s="32"/>
+      <c r="G292" s="32"/>
+      <c r="H292" s="32"/>
+      <c r="I292" s="32"/>
+      <c r="J292" s="32"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="11">
@@ -15050,11 +15050,11 @@
       <c r="D293" s="5">
         <v>22.208333333333332</v>
       </c>
-      <c r="F293" s="34"/>
-      <c r="G293" s="34"/>
-      <c r="H293" s="34"/>
-      <c r="I293" s="34"/>
-      <c r="J293" s="34"/>
+      <c r="F293" s="32"/>
+      <c r="G293" s="32"/>
+      <c r="H293" s="32"/>
+      <c r="I293" s="32"/>
+      <c r="J293" s="32"/>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="11">
@@ -15069,11 +15069,11 @@
       <c r="D294" s="5">
         <v>18.791666666666664</v>
       </c>
-      <c r="F294" s="34"/>
-      <c r="G294" s="34"/>
-      <c r="H294" s="34"/>
-      <c r="I294" s="34"/>
-      <c r="J294" s="34"/>
+      <c r="F294" s="32"/>
+      <c r="G294" s="32"/>
+      <c r="H294" s="32"/>
+      <c r="I294" s="32"/>
+      <c r="J294" s="32"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="11">
@@ -15088,11 +15088,11 @@
       <c r="D295" s="5">
         <v>15.683333333333337</v>
       </c>
-      <c r="F295" s="34"/>
-      <c r="G295" s="34"/>
-      <c r="H295" s="34"/>
-      <c r="I295" s="34"/>
-      <c r="J295" s="34"/>
+      <c r="F295" s="32"/>
+      <c r="G295" s="32"/>
+      <c r="H295" s="32"/>
+      <c r="I295" s="32"/>
+      <c r="J295" s="32"/>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="11">
@@ -15107,11 +15107,11 @@
       <c r="D296" s="5">
         <v>15.179166666666667</v>
       </c>
-      <c r="F296" s="34"/>
-      <c r="G296" s="34"/>
-      <c r="H296" s="34"/>
-      <c r="I296" s="34"/>
-      <c r="J296" s="34"/>
+      <c r="F296" s="32"/>
+      <c r="G296" s="32"/>
+      <c r="H296" s="32"/>
+      <c r="I296" s="32"/>
+      <c r="J296" s="32"/>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="11">
@@ -15126,11 +15126,11 @@
       <c r="D297" s="5">
         <v>15.466666666666667</v>
       </c>
-      <c r="F297" s="34"/>
-      <c r="G297" s="34"/>
-      <c r="H297" s="34"/>
-      <c r="I297" s="34"/>
-      <c r="J297" s="34"/>
+      <c r="F297" s="32"/>
+      <c r="G297" s="32"/>
+      <c r="H297" s="32"/>
+      <c r="I297" s="32"/>
+      <c r="J297" s="32"/>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="11">
@@ -15145,11 +15145,11 @@
       <c r="D298" s="5">
         <v>18.308333333333326</v>
       </c>
-      <c r="F298" s="34"/>
-      <c r="G298" s="34"/>
-      <c r="H298" s="34"/>
-      <c r="I298" s="34"/>
-      <c r="J298" s="34"/>
+      <c r="F298" s="32"/>
+      <c r="G298" s="32"/>
+      <c r="H298" s="32"/>
+      <c r="I298" s="32"/>
+      <c r="J298" s="32"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="11">
@@ -15164,11 +15164,11 @@
       <c r="D299" s="5">
         <v>21.420833333333338</v>
       </c>
-      <c r="F299" s="34"/>
-      <c r="G299" s="34"/>
-      <c r="H299" s="34"/>
-      <c r="I299" s="34"/>
-      <c r="J299" s="34"/>
+      <c r="F299" s="32"/>
+      <c r="G299" s="32"/>
+      <c r="H299" s="32"/>
+      <c r="I299" s="32"/>
+      <c r="J299" s="32"/>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="11">
@@ -15183,11 +15183,11 @@
       <c r="D300" s="5">
         <v>24.3125</v>
       </c>
-      <c r="F300" s="34"/>
-      <c r="G300" s="34"/>
-      <c r="H300" s="34"/>
-      <c r="I300" s="34"/>
-      <c r="J300" s="34"/>
+      <c r="F300" s="32"/>
+      <c r="G300" s="32"/>
+      <c r="H300" s="32"/>
+      <c r="I300" s="32"/>
+      <c r="J300" s="32"/>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="11">
@@ -15202,11 +15202,11 @@
       <c r="D301" s="5">
         <v>25.75</v>
       </c>
-      <c r="F301" s="34"/>
-      <c r="G301" s="34"/>
-      <c r="H301" s="34"/>
-      <c r="I301" s="34"/>
-      <c r="J301" s="34"/>
+      <c r="F301" s="32"/>
+      <c r="G301" s="32"/>
+      <c r="H301" s="32"/>
+      <c r="I301" s="32"/>
+      <c r="J301" s="32"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="11">
@@ -15221,11 +15221,11 @@
       <c r="D302" s="5">
         <v>26.000000000000004</v>
       </c>
-      <c r="F302" s="34"/>
-      <c r="G302" s="34"/>
-      <c r="H302" s="34"/>
-      <c r="I302" s="34"/>
-      <c r="J302" s="34"/>
+      <c r="F302" s="32"/>
+      <c r="G302" s="32"/>
+      <c r="H302" s="32"/>
+      <c r="I302" s="32"/>
+      <c r="J302" s="32"/>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="11">
@@ -15240,11 +15240,11 @@
       <c r="D303" s="5">
         <v>20.575000000000003</v>
       </c>
-      <c r="F303" s="34"/>
-      <c r="G303" s="34"/>
-      <c r="H303" s="34"/>
-      <c r="I303" s="34"/>
-      <c r="J303" s="34"/>
+      <c r="F303" s="32"/>
+      <c r="G303" s="32"/>
+      <c r="H303" s="32"/>
+      <c r="I303" s="32"/>
+      <c r="J303" s="32"/>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="11">
@@ -15259,11 +15259,11 @@
       <c r="D304" s="5">
         <v>17.912500000000001</v>
       </c>
-      <c r="F304" s="34"/>
-      <c r="G304" s="34"/>
-      <c r="H304" s="34"/>
-      <c r="I304" s="34"/>
-      <c r="J304" s="34"/>
+      <c r="F304" s="32"/>
+      <c r="G304" s="32"/>
+      <c r="H304" s="32"/>
+      <c r="I304" s="32"/>
+      <c r="J304" s="32"/>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="11">
@@ -15278,11 +15278,11 @@
       <c r="D305" s="5">
         <v>16.883333333333336</v>
       </c>
-      <c r="F305" s="34"/>
-      <c r="G305" s="34"/>
-      <c r="H305" s="34"/>
-      <c r="I305" s="34"/>
-      <c r="J305" s="34"/>
+      <c r="F305" s="32"/>
+      <c r="G305" s="32"/>
+      <c r="H305" s="32"/>
+      <c r="I305" s="32"/>
+      <c r="J305" s="32"/>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="11">
@@ -15297,11 +15297,11 @@
       <c r="D306" s="5">
         <v>18.533333333333339</v>
       </c>
-      <c r="F306" s="34"/>
-      <c r="G306" s="34"/>
-      <c r="H306" s="34"/>
-      <c r="I306" s="34"/>
-      <c r="J306" s="34"/>
+      <c r="F306" s="32"/>
+      <c r="G306" s="32"/>
+      <c r="H306" s="32"/>
+      <c r="I306" s="32"/>
+      <c r="J306" s="32"/>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="11">
@@ -15317,8 +15317,8 @@
         <v>22.362499999999997</v>
       </c>
       <c r="F307" s="8"/>
-      <c r="I307" s="34"/>
-      <c r="J307" s="34"/>
+      <c r="I307" s="32"/>
+      <c r="J307" s="32"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="11">
@@ -15334,8 +15334,8 @@
         <v>21.795833333333331</v>
       </c>
       <c r="F308" s="8"/>
-      <c r="I308" s="34"/>
-      <c r="J308" s="34"/>
+      <c r="I308" s="32"/>
+      <c r="J308" s="32"/>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="11">
@@ -15351,8 +15351,8 @@
         <v>20.470833333333342</v>
       </c>
       <c r="F309" s="8"/>
-      <c r="I309" s="34"/>
-      <c r="J309" s="34"/>
+      <c r="I309" s="32"/>
+      <c r="J309" s="32"/>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="11">
@@ -15368,8 +15368,8 @@
         <v>20.8</v>
       </c>
       <c r="F310" s="8"/>
-      <c r="I310" s="34"/>
-      <c r="J310" s="34"/>
+      <c r="I310" s="32"/>
+      <c r="J310" s="32"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="11">
@@ -15385,8 +15385,8 @@
         <v>20.833333333333339</v>
       </c>
       <c r="F311" s="8"/>
-      <c r="I311" s="34"/>
-      <c r="J311" s="34"/>
+      <c r="I311" s="32"/>
+      <c r="J311" s="32"/>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="11">
@@ -15402,8 +15402,8 @@
         <v>17.037499999999998</v>
       </c>
       <c r="F312" s="8"/>
-      <c r="I312" s="34"/>
-      <c r="J312" s="34"/>
+      <c r="I312" s="32"/>
+      <c r="J312" s="32"/>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="11">
@@ -15419,8 +15419,8 @@
         <v>17.720833333333328</v>
       </c>
       <c r="F313" s="8"/>
-      <c r="I313" s="34"/>
-      <c r="J313" s="34"/>
+      <c r="I313" s="32"/>
+      <c r="J313" s="32"/>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="11">
@@ -15528,706 +15528,706 @@
       <c r="F320" s="8"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="38" t="s">
+      <c r="A321" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B321" s="39">
+      <c r="B321" s="37">
         <v>41136</v>
       </c>
-      <c r="C321" s="33">
+      <c r="C321" s="31">
         <v>16.3</v>
       </c>
-      <c r="D321" s="33">
+      <c r="D321" s="31">
         <v>25.1</v>
       </c>
       <c r="F321" s="8"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="38" t="s">
+      <c r="A322" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B322" s="39">
+      <c r="B322" s="37">
         <v>41137</v>
       </c>
-      <c r="C322" s="33">
-        <v>0</v>
-      </c>
-      <c r="D322" s="33">
+      <c r="C322" s="31">
+        <v>0</v>
+      </c>
+      <c r="D322" s="31">
         <v>19.899999999999999</v>
       </c>
       <c r="F322" s="8"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="38" t="s">
+      <c r="A323" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B323" s="39">
+      <c r="B323" s="37">
         <v>41138</v>
       </c>
-      <c r="C323" s="33">
-        <v>0</v>
-      </c>
-      <c r="D323" s="33">
+      <c r="C323" s="31">
+        <v>0</v>
+      </c>
+      <c r="D323" s="31">
         <v>21.1</v>
       </c>
       <c r="F323" s="8"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="38" t="s">
+      <c r="A324" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B324" s="39">
+      <c r="B324" s="37">
         <v>41139</v>
       </c>
-      <c r="C324" s="33">
-        <v>0</v>
-      </c>
-      <c r="D324" s="33">
+      <c r="C324" s="31">
+        <v>0</v>
+      </c>
+      <c r="D324" s="31">
         <v>23.7</v>
       </c>
       <c r="F324" s="8"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="38" t="s">
+      <c r="A325" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B325" s="39">
+      <c r="B325" s="37">
         <v>41140</v>
       </c>
-      <c r="C325" s="33">
-        <v>0</v>
-      </c>
-      <c r="D325" s="33">
+      <c r="C325" s="31">
+        <v>0</v>
+      </c>
+      <c r="D325" s="31">
         <v>25.1</v>
       </c>
       <c r="F325" s="8"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="38" t="s">
+      <c r="A326" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B326" s="39">
+      <c r="B326" s="37">
         <v>41141</v>
       </c>
-      <c r="C326" s="33">
-        <v>0</v>
-      </c>
-      <c r="D326" s="33">
+      <c r="C326" s="31">
+        <v>0</v>
+      </c>
+      <c r="D326" s="31">
         <v>25.6</v>
       </c>
       <c r="F326" s="8"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="38" t="s">
+      <c r="A327" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B327" s="39">
+      <c r="B327" s="37">
         <v>41142</v>
       </c>
-      <c r="C327" s="33">
+      <c r="C327" s="31">
         <v>0.2</v>
       </c>
-      <c r="D327" s="33">
+      <c r="D327" s="31">
         <v>25.1</v>
       </c>
       <c r="F327" s="8"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="38" t="s">
+      <c r="A328" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B328" s="39">
+      <c r="B328" s="37">
         <v>41143</v>
       </c>
-      <c r="C328" s="33">
-        <v>0</v>
-      </c>
-      <c r="D328" s="33">
+      <c r="C328" s="31">
+        <v>0</v>
+      </c>
+      <c r="D328" s="31">
         <v>22.2</v>
       </c>
       <c r="F328" s="8"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="38" t="s">
+      <c r="A329" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B329" s="39">
+      <c r="B329" s="37">
         <v>41144</v>
       </c>
-      <c r="C329" s="33">
+      <c r="C329" s="31">
         <v>1.6</v>
       </c>
-      <c r="D329" s="33">
+      <c r="D329" s="31">
         <v>20.8</v>
       </c>
       <c r="F329" s="8"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="38" t="s">
+      <c r="A330" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B330" s="39">
+      <c r="B330" s="37">
         <v>41145</v>
       </c>
-      <c r="C330" s="33">
+      <c r="C330" s="31">
         <v>7.3</v>
       </c>
-      <c r="D330" s="33">
+      <c r="D330" s="31">
         <v>20.2</v>
       </c>
       <c r="F330" s="8"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="38" t="s">
+      <c r="A331" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B331" s="39">
+      <c r="B331" s="37">
         <v>41146</v>
       </c>
-      <c r="C331" s="33">
-        <v>0</v>
-      </c>
-      <c r="D331" s="33">
+      <c r="C331" s="31">
+        <v>0</v>
+      </c>
+      <c r="D331" s="31">
         <v>20.100000000000001</v>
       </c>
       <c r="F331" s="8"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="38" t="s">
+      <c r="A332" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B332" s="39">
+      <c r="B332" s="37">
         <v>41147</v>
       </c>
-      <c r="C332" s="33">
+      <c r="C332" s="31">
         <v>0.2</v>
       </c>
-      <c r="D332" s="33">
+      <c r="D332" s="31">
         <v>17.600000000000001</v>
       </c>
       <c r="F332" s="8"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="38" t="s">
+      <c r="A333" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B333" s="39">
+      <c r="B333" s="37">
         <v>41148</v>
       </c>
-      <c r="C333" s="33">
-        <v>0</v>
-      </c>
-      <c r="D333" s="33">
+      <c r="C333" s="31">
+        <v>0</v>
+      </c>
+      <c r="D333" s="31">
         <v>17.899999999999999</v>
       </c>
       <c r="F333" s="8"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="38" t="s">
+      <c r="A334" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B334" s="39">
+      <c r="B334" s="37">
         <v>41149</v>
       </c>
-      <c r="C334" s="33">
-        <v>0</v>
-      </c>
-      <c r="D334" s="33">
+      <c r="C334" s="31">
+        <v>0</v>
+      </c>
+      <c r="D334" s="31">
         <v>19.600000000000001</v>
       </c>
       <c r="F334" s="8"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="38" t="s">
+      <c r="A335" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B335" s="39">
+      <c r="B335" s="37">
         <v>41150</v>
       </c>
-      <c r="C335" s="33">
+      <c r="C335" s="31">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D335" s="33">
+      <c r="D335" s="31">
         <v>21.2</v>
       </c>
       <c r="F335" s="8"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="38" t="s">
+      <c r="A336" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B336" s="39">
+      <c r="B336" s="37">
         <v>41151</v>
       </c>
-      <c r="C336" s="33">
+      <c r="C336" s="31">
         <v>0.2</v>
       </c>
-      <c r="D336" s="33">
+      <c r="D336" s="31">
         <v>18.3</v>
       </c>
       <c r="F336" s="8"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="38" t="s">
+      <c r="A337" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B337" s="39">
+      <c r="B337" s="37">
         <v>41152</v>
       </c>
-      <c r="C337" s="33">
+      <c r="C337" s="31">
         <v>1.8</v>
       </c>
-      <c r="D337" s="33">
+      <c r="D337" s="31">
         <v>14.9</v>
       </c>
       <c r="F337" s="8"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="38" t="s">
+      <c r="A338" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B338" s="39">
+      <c r="B338" s="37">
         <v>41153</v>
       </c>
-      <c r="C338" s="33">
-        <v>0</v>
-      </c>
-      <c r="D338" s="33">
+      <c r="C338" s="31">
+        <v>0</v>
+      </c>
+      <c r="D338" s="31">
         <v>14.8</v>
       </c>
       <c r="F338" s="8"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="38" t="s">
+      <c r="A339" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B339" s="39">
+      <c r="B339" s="37">
         <v>41154</v>
       </c>
-      <c r="C339" s="33">
-        <v>0</v>
-      </c>
-      <c r="D339" s="33">
+      <c r="C339" s="31">
+        <v>0</v>
+      </c>
+      <c r="D339" s="31">
         <v>16.8</v>
       </c>
       <c r="F339" s="8"/>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="38" t="s">
+      <c r="A340" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B340" s="39">
+      <c r="B340" s="37">
         <v>41155</v>
       </c>
-      <c r="C340" s="33">
-        <v>0</v>
-      </c>
-      <c r="D340" s="33">
+      <c r="C340" s="31">
+        <v>0</v>
+      </c>
+      <c r="D340" s="31">
         <v>19.600000000000001</v>
       </c>
       <c r="F340" s="8"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="38" t="s">
+      <c r="A341" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B341" s="39">
+      <c r="B341" s="37">
         <v>41156</v>
       </c>
-      <c r="C341" s="33">
-        <v>0</v>
-      </c>
-      <c r="D341" s="33">
+      <c r="C341" s="31">
+        <v>0</v>
+      </c>
+      <c r="D341" s="31">
         <v>19.899999999999999</v>
       </c>
       <c r="F341" s="8"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="38" t="s">
+      <c r="A342" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B342" s="39">
+      <c r="B342" s="37">
         <v>41157</v>
       </c>
-      <c r="C342" s="33">
-        <v>0</v>
-      </c>
-      <c r="D342" s="33">
+      <c r="C342" s="31">
+        <v>0</v>
+      </c>
+      <c r="D342" s="31">
         <v>19.600000000000001</v>
       </c>
       <c r="F342" s="8"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="38" t="s">
+      <c r="A343" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B343" s="39">
+      <c r="B343" s="37">
         <v>41158</v>
       </c>
-      <c r="C343" s="33">
-        <v>0</v>
-      </c>
-      <c r="D343" s="33">
+      <c r="C343" s="31">
+        <v>0</v>
+      </c>
+      <c r="D343" s="31">
         <v>16.899999999999999</v>
       </c>
       <c r="F343" s="8"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="38" t="s">
+      <c r="A344" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B344" s="39">
+      <c r="B344" s="37">
         <v>41159</v>
       </c>
-      <c r="C344" s="33">
-        <v>0</v>
-      </c>
-      <c r="D344" s="33">
+      <c r="C344" s="31">
+        <v>0</v>
+      </c>
+      <c r="D344" s="31">
         <v>16.100000000000001</v>
       </c>
       <c r="F344" s="8"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="38" t="s">
+      <c r="A345" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B345" s="39">
+      <c r="B345" s="37">
         <v>41160</v>
       </c>
-      <c r="C345" s="33">
-        <v>0</v>
-      </c>
-      <c r="D345" s="33">
+      <c r="C345" s="31">
+        <v>0</v>
+      </c>
+      <c r="D345" s="31">
         <v>17.899999999999999</v>
       </c>
       <c r="F345" s="8"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="38" t="s">
+      <c r="A346" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B346" s="39">
+      <c r="B346" s="37">
         <v>41161</v>
       </c>
-      <c r="C346" s="33">
-        <v>0</v>
-      </c>
-      <c r="D346" s="33">
+      <c r="C346" s="31">
+        <v>0</v>
+      </c>
+      <c r="D346" s="31">
         <v>19.899999999999999</v>
       </c>
       <c r="F346" s="8"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="38" t="s">
+      <c r="A347" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B347" s="39">
+      <c r="B347" s="37">
         <v>41162</v>
       </c>
-      <c r="C347" s="33">
-        <v>0</v>
-      </c>
-      <c r="D347" s="33">
+      <c r="C347" s="31">
+        <v>0</v>
+      </c>
+      <c r="D347" s="31">
         <v>21.4</v>
       </c>
       <c r="F347" s="8"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="38" t="s">
+      <c r="A348" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B348" s="39">
+      <c r="B348" s="37">
         <v>41163</v>
       </c>
-      <c r="C348" s="33">
+      <c r="C348" s="31">
         <v>9.4</v>
       </c>
-      <c r="D348" s="33">
+      <c r="D348" s="31">
         <v>19</v>
       </c>
       <c r="F348" s="8"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="38" t="s">
+      <c r="A349" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B349" s="39">
+      <c r="B349" s="37">
         <v>41164</v>
       </c>
-      <c r="C349" s="33">
+      <c r="C349" s="31">
         <v>3.8</v>
       </c>
-      <c r="D349" s="33">
+      <c r="D349" s="31">
         <v>13.1</v>
       </c>
       <c r="F349" s="8"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="38" t="s">
+      <c r="A350" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B350" s="39">
+      <c r="B350" s="37">
         <v>41165</v>
       </c>
-      <c r="C350" s="33">
-        <v>0</v>
-      </c>
-      <c r="D350" s="33">
+      <c r="C350" s="31">
+        <v>0</v>
+      </c>
+      <c r="D350" s="31">
         <v>12.9</v>
       </c>
       <c r="F350" s="8"/>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="38" t="s">
+      <c r="A351" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B351" s="39">
+      <c r="B351" s="37">
         <v>41166</v>
       </c>
-      <c r="C351" s="33">
-        <v>0</v>
-      </c>
-      <c r="D351" s="33">
+      <c r="C351" s="31">
+        <v>0</v>
+      </c>
+      <c r="D351" s="31">
         <v>14.8</v>
       </c>
       <c r="F351" s="8"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="38" t="s">
+      <c r="A352" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B352" s="39">
+      <c r="B352" s="37">
         <v>41167</v>
       </c>
-      <c r="C352" s="33">
-        <v>0</v>
-      </c>
-      <c r="D352" s="33">
+      <c r="C352" s="31">
+        <v>0</v>
+      </c>
+      <c r="D352" s="31">
         <v>16</v>
       </c>
       <c r="F352" s="8"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="38" t="s">
+      <c r="A353" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B353" s="39">
+      <c r="B353" s="37">
         <v>41168</v>
       </c>
-      <c r="C353" s="33">
-        <v>0</v>
-      </c>
-      <c r="D353" s="33">
+      <c r="C353" s="31">
+        <v>0</v>
+      </c>
+      <c r="D353" s="31">
         <v>15.2</v>
       </c>
       <c r="F353" s="8"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="38" t="s">
+      <c r="A354" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B354" s="39">
+      <c r="B354" s="37">
         <v>41169</v>
       </c>
-      <c r="C354" s="33">
-        <v>0</v>
-      </c>
-      <c r="D354" s="33">
+      <c r="C354" s="31">
+        <v>0</v>
+      </c>
+      <c r="D354" s="31">
         <v>17.3</v>
       </c>
       <c r="F354" s="8"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="38" t="s">
+      <c r="A355" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B355" s="39">
+      <c r="B355" s="37">
         <v>41170</v>
       </c>
-      <c r="C355" s="33">
+      <c r="C355" s="31">
         <v>12.7</v>
       </c>
-      <c r="D355" s="33">
+      <c r="D355" s="31">
         <v>17.2</v>
       </c>
       <c r="F355" s="8"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="38" t="s">
+      <c r="A356" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B356" s="39">
+      <c r="B356" s="37">
         <v>41171</v>
       </c>
-      <c r="C356" s="33">
-        <v>0</v>
-      </c>
-      <c r="D356" s="33">
+      <c r="C356" s="31">
+        <v>0</v>
+      </c>
+      <c r="D356" s="31">
         <v>13.4</v>
       </c>
       <c r="F356" s="8"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="38" t="s">
+      <c r="A357" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B357" s="39">
+      <c r="B357" s="37">
         <v>41172</v>
       </c>
-      <c r="C357" s="33">
-        <v>0</v>
-      </c>
-      <c r="D357" s="33">
+      <c r="C357" s="31">
+        <v>0</v>
+      </c>
+      <c r="D357" s="31">
         <v>10.9</v>
       </c>
       <c r="F357" s="8"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="38" t="s">
+      <c r="A358" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B358" s="39">
+      <c r="B358" s="37">
         <v>41173</v>
       </c>
-      <c r="C358" s="33">
+      <c r="C358" s="31">
         <v>15.9</v>
       </c>
-      <c r="D358" s="33">
+      <c r="D358" s="31">
         <v>14</v>
       </c>
       <c r="F358" s="8"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="38" t="s">
+      <c r="A359" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B359" s="39">
+      <c r="B359" s="37">
         <v>41174</v>
       </c>
-      <c r="C359" s="33">
+      <c r="C359" s="31">
         <v>1.4</v>
       </c>
-      <c r="D359" s="33">
+      <c r="D359" s="31">
         <v>13.9</v>
       </c>
       <c r="F359" s="8"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="38" t="s">
+      <c r="A360" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B360" s="39">
+      <c r="B360" s="37">
         <v>41175</v>
       </c>
-      <c r="C360" s="33">
-        <v>0</v>
-      </c>
-      <c r="D360" s="33">
+      <c r="C360" s="31">
+        <v>0</v>
+      </c>
+      <c r="D360" s="31">
         <v>13.6</v>
       </c>
       <c r="F360" s="8"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="38" t="s">
+      <c r="A361" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B361" s="39">
+      <c r="B361" s="37">
         <v>41176</v>
       </c>
-      <c r="C361" s="33">
+      <c r="C361" s="31">
         <v>1</v>
       </c>
-      <c r="D361" s="33">
+      <c r="D361" s="31">
         <v>16.600000000000001</v>
       </c>
       <c r="F361" s="8"/>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="38" t="s">
+      <c r="A362" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B362" s="39">
+      <c r="B362" s="37">
         <v>41177</v>
       </c>
-      <c r="C362" s="33">
+      <c r="C362" s="31">
         <v>5.4</v>
       </c>
-      <c r="D362" s="33">
+      <c r="D362" s="31">
         <v>13.8</v>
       </c>
       <c r="F362" s="8"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="38" t="s">
+      <c r="A363" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B363" s="39">
+      <c r="B363" s="37">
         <v>41178</v>
       </c>
-      <c r="C363" s="33">
+      <c r="C363" s="31">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D363" s="33">
+      <c r="D363" s="31">
         <v>12.5</v>
       </c>
       <c r="F363" s="8"/>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="38" t="s">
+      <c r="A364" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B364" s="39">
+      <c r="B364" s="37">
         <v>41179</v>
       </c>
-      <c r="C364" s="33">
+      <c r="C364" s="31">
         <v>1.2</v>
       </c>
-      <c r="D364" s="33">
+      <c r="D364" s="31">
         <v>13.3</v>
       </c>
       <c r="F364" s="8"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="38" t="s">
+      <c r="A365" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B365" s="39">
+      <c r="B365" s="37">
         <v>41180</v>
       </c>
-      <c r="C365" s="33">
-        <v>0</v>
-      </c>
-      <c r="D365" s="33">
+      <c r="C365" s="31">
+        <v>0</v>
+      </c>
+      <c r="D365" s="31">
         <v>13.3</v>
       </c>
       <c r="F365" s="8"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="38" t="s">
+      <c r="A366" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B366" s="39">
+      <c r="B366" s="37">
         <v>41181</v>
       </c>
-      <c r="C366" s="33">
-        <v>0</v>
-      </c>
-      <c r="D366" s="33">
+      <c r="C366" s="31">
+        <v>0</v>
+      </c>
+      <c r="D366" s="31">
         <v>11.4</v>
       </c>
       <c r="F366" s="8"/>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="38" t="s">
+      <c r="A367" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B367" s="39">
+      <c r="B367" s="37">
         <v>41182</v>
       </c>
-      <c r="C367" s="33">
-        <v>0</v>
-      </c>
-      <c r="D367" s="33">
+      <c r="C367" s="31">
+        <v>0</v>
+      </c>
+      <c r="D367" s="31">
         <v>12</v>
       </c>
       <c r="F367" s="8"/>
@@ -16332,18 +16332,18 @@
         <v>7.6</v>
       </c>
       <c r="F2" s="11"/>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -49464,16 +49464,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="L1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
